--- a/ExcelExport/Templates/purchased_items_list.xlsx
+++ b/ExcelExport/Templates/purchased_items_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GostDOC\ExcelExport\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855A0E45-2E21-4E9A-9F17-060FCF9E628A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA03F005-7129-4AD2-A4C9-D6A7E616D693}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -174,7 +174,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,21 +262,6 @@
     </font>
     <font>
       <i/>
-      <u/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="GOST type A"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <u/>
-      <sz val="12"/>
-      <name val="GOST type A"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="GOST type A"/>
@@ -285,14 +270,6 @@
     <font>
       <i/>
       <sz val="12"/>
-      <name val="GOST type A"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="GOST type A"/>
       <family val="2"/>
     </font>
@@ -879,7 +856,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="281">
+  <cellXfs count="269">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -895,7 +872,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -910,54 +887,54 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -965,7 +942,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -975,20 +952,20 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1026,174 +1003,165 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1206,8 +1174,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1238,7 +1206,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="3" borderId="6" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1264,29 +1232,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1296,8 +1247,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1314,29 +1271,29 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1348,10 +1305,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1368,10 +1321,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1381,35 +1330,21 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1422,7 +1357,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1434,9 +1369,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1461,7 +1393,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1509,13 +1441,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1529,12 +1461,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1556,13 +1482,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1643,11 +1569,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1674,13 +1600,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1699,17 +1625,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -2104,926 +2043,926 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A1" s="103"/>
-      <c r="B1" s="104"/>
-      <c r="C1" s="112" t="s">
+      <c r="A1" s="100"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="113" t="s">
+      <c r="E1" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="113" t="s">
+      <c r="F1" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="113" t="s">
+      <c r="G1" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113" t="s">
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113" t="s">
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
-      <c r="Y1" s="113"/>
-      <c r="Z1" s="113"/>
-      <c r="AA1" s="113"/>
-      <c r="AB1" s="113" t="s">
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
+      <c r="X1" s="110"/>
+      <c r="Y1" s="110"/>
+      <c r="Z1" s="110"/>
+      <c r="AA1" s="110"/>
+      <c r="AB1" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="AC1" s="113"/>
+      <c r="AC1" s="110"/>
     </row>
     <row r="2" spans="1:29" ht="51" customHeight="1" thickBot="1">
-      <c r="A2" s="103"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="115" t="s">
+      <c r="A2" s="100"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="115"/>
-      <c r="U2" s="113" t="s">
+      <c r="T2" s="112"/>
+      <c r="U2" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="113"/>
-      <c r="W2" s="113" t="s">
+      <c r="V2" s="110"/>
+      <c r="W2" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="X2" s="113"/>
-      <c r="Y2" s="113" t="s">
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="Z2" s="113"/>
-      <c r="AA2" s="113"/>
-      <c r="AB2" s="113"/>
-      <c r="AC2" s="113"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="110"/>
     </row>
     <row r="3" spans="1:29" ht="22.9" customHeight="1">
-      <c r="A3" s="103"/>
-      <c r="B3" s="104"/>
+      <c r="A3" s="100"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="61">
         <v>1</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="127"/>
-      <c r="P3" s="127"/>
-      <c r="Q3" s="127"/>
-      <c r="R3" s="127"/>
-      <c r="S3" s="135"/>
-      <c r="T3" s="135"/>
-      <c r="U3" s="135"/>
-      <c r="V3" s="135"/>
-      <c r="W3" s="128"/>
-      <c r="X3" s="128"/>
-      <c r="Y3" s="129"/>
-      <c r="Z3" s="129"/>
-      <c r="AA3" s="129"/>
-      <c r="AB3" s="169"/>
-      <c r="AC3" s="169"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="124"/>
+      <c r="P3" s="124"/>
+      <c r="Q3" s="124"/>
+      <c r="R3" s="124"/>
+      <c r="S3" s="132"/>
+      <c r="T3" s="132"/>
+      <c r="U3" s="132"/>
+      <c r="V3" s="132"/>
+      <c r="W3" s="125"/>
+      <c r="X3" s="125"/>
+      <c r="Y3" s="126"/>
+      <c r="Z3" s="126"/>
+      <c r="AA3" s="126"/>
+      <c r="AB3" s="262"/>
+      <c r="AC3" s="262"/>
     </row>
     <row r="4" spans="1:29" ht="22.9" customHeight="1">
-      <c r="A4" s="103"/>
-      <c r="B4" s="104"/>
-      <c r="C4" s="63">
+      <c r="A4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="62">
         <v>2</v>
       </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="86"/>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
-      <c r="U4" s="116"/>
-      <c r="V4" s="116"/>
-      <c r="W4" s="131"/>
-      <c r="X4" s="131"/>
-      <c r="Y4" s="87"/>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="175"/>
-      <c r="AC4" s="175"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="113"/>
+      <c r="T4" s="113"/>
+      <c r="U4" s="113"/>
+      <c r="V4" s="113"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="128"/>
+      <c r="Y4" s="84"/>
+      <c r="Z4" s="85"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="263"/>
+      <c r="AC4" s="263"/>
     </row>
     <row r="5" spans="1:29" ht="22.9" customHeight="1">
-      <c r="A5" s="103"/>
-      <c r="B5" s="104"/>
-      <c r="C5" s="63">
+      <c r="A5" s="100"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="62">
         <v>3</v>
       </c>
-      <c r="D5" s="66"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
-      <c r="U5" s="116"/>
-      <c r="V5" s="116"/>
-      <c r="W5" s="132"/>
-      <c r="X5" s="132"/>
-      <c r="Y5" s="87"/>
-      <c r="Z5" s="88"/>
-      <c r="AA5" s="89"/>
-      <c r="AB5" s="180"/>
-      <c r="AC5" s="180"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="113"/>
+      <c r="T5" s="113"/>
+      <c r="U5" s="113"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="129"/>
+      <c r="X5" s="129"/>
+      <c r="Y5" s="84"/>
+      <c r="Z5" s="85"/>
+      <c r="AA5" s="86"/>
+      <c r="AB5" s="264"/>
+      <c r="AC5" s="264"/>
     </row>
     <row r="6" spans="1:29" ht="22.9" customHeight="1">
-      <c r="A6" s="103"/>
-      <c r="B6" s="104"/>
-      <c r="C6" s="63">
+      <c r="A6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="62">
         <v>4</v>
       </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="86"/>
-      <c r="R6" s="86"/>
-      <c r="S6" s="116"/>
-      <c r="T6" s="116"/>
-      <c r="U6" s="116"/>
-      <c r="V6" s="116"/>
-      <c r="W6" s="133"/>
-      <c r="X6" s="133"/>
-      <c r="Y6" s="87"/>
-      <c r="Z6" s="88"/>
-      <c r="AA6" s="89"/>
-      <c r="AB6" s="182"/>
-      <c r="AC6" s="182"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="113"/>
+      <c r="T6" s="113"/>
+      <c r="U6" s="113"/>
+      <c r="V6" s="113"/>
+      <c r="W6" s="130"/>
+      <c r="X6" s="130"/>
+      <c r="Y6" s="84"/>
+      <c r="Z6" s="85"/>
+      <c r="AA6" s="86"/>
+      <c r="AB6" s="265"/>
+      <c r="AC6" s="265"/>
     </row>
     <row r="7" spans="1:29" ht="22.9" customHeight="1">
-      <c r="A7" s="103"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="63">
+      <c r="A7" s="100"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="62">
         <v>5</v>
       </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="86"/>
-      <c r="O7" s="86"/>
-      <c r="P7" s="86"/>
-      <c r="Q7" s="86"/>
-      <c r="R7" s="86"/>
-      <c r="S7" s="116"/>
-      <c r="T7" s="116"/>
-      <c r="U7" s="116"/>
-      <c r="V7" s="116"/>
-      <c r="W7" s="134"/>
-      <c r="X7" s="134"/>
-      <c r="Y7" s="87"/>
-      <c r="Z7" s="88"/>
-      <c r="AA7" s="89"/>
-      <c r="AB7" s="184"/>
-      <c r="AC7" s="184"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="83"/>
+      <c r="S7" s="113"/>
+      <c r="T7" s="113"/>
+      <c r="U7" s="113"/>
+      <c r="V7" s="113"/>
+      <c r="W7" s="131"/>
+      <c r="X7" s="131"/>
+      <c r="Y7" s="84"/>
+      <c r="Z7" s="85"/>
+      <c r="AA7" s="86"/>
+      <c r="AB7" s="266"/>
+      <c r="AC7" s="266"/>
     </row>
     <row r="8" spans="1:29" ht="22.9" customHeight="1">
-      <c r="A8" s="103"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="63">
+      <c r="A8" s="100"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="62">
         <v>6</v>
       </c>
-      <c r="D8" s="66"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="86"/>
-      <c r="Q8" s="86"/>
-      <c r="R8" s="86"/>
-      <c r="S8" s="116"/>
-      <c r="T8" s="116"/>
-      <c r="U8" s="116"/>
-      <c r="V8" s="116"/>
-      <c r="W8" s="132"/>
-      <c r="X8" s="132"/>
-      <c r="Y8" s="87"/>
-      <c r="Z8" s="88"/>
-      <c r="AA8" s="89"/>
-      <c r="AB8" s="180"/>
-      <c r="AC8" s="180"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="83"/>
+      <c r="Q8" s="83"/>
+      <c r="R8" s="83"/>
+      <c r="S8" s="113"/>
+      <c r="T8" s="113"/>
+      <c r="U8" s="113"/>
+      <c r="V8" s="113"/>
+      <c r="W8" s="129"/>
+      <c r="X8" s="129"/>
+      <c r="Y8" s="84"/>
+      <c r="Z8" s="85"/>
+      <c r="AA8" s="86"/>
+      <c r="AB8" s="264"/>
+      <c r="AC8" s="264"/>
     </row>
     <row r="9" spans="1:29" ht="22.9" customHeight="1">
-      <c r="A9" s="103"/>
-      <c r="B9" s="104"/>
-      <c r="C9" s="63">
+      <c r="A9" s="100"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="62">
         <v>7</v>
       </c>
-      <c r="D9" s="66"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="86"/>
-      <c r="P9" s="86"/>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="86"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="116"/>
-      <c r="V9" s="116"/>
-      <c r="W9" s="138"/>
-      <c r="X9" s="138"/>
-      <c r="Y9" s="87"/>
-      <c r="Z9" s="88"/>
-      <c r="AA9" s="89"/>
-      <c r="AB9" s="180"/>
-      <c r="AC9" s="180"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="83"/>
+      <c r="S9" s="113"/>
+      <c r="T9" s="113"/>
+      <c r="U9" s="113"/>
+      <c r="V9" s="113"/>
+      <c r="W9" s="135"/>
+      <c r="X9" s="135"/>
+      <c r="Y9" s="84"/>
+      <c r="Z9" s="85"/>
+      <c r="AA9" s="86"/>
+      <c r="AB9" s="264"/>
+      <c r="AC9" s="264"/>
     </row>
     <row r="10" spans="1:29" ht="22.9" customHeight="1">
-      <c r="A10" s="103"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="63">
+      <c r="A10" s="100"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="62">
         <v>8</v>
       </c>
-      <c r="D10" s="66"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="111"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="86"/>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="86"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="116"/>
-      <c r="V10" s="116"/>
-      <c r="W10" s="131"/>
-      <c r="X10" s="131"/>
-      <c r="Y10" s="87"/>
-      <c r="Z10" s="88"/>
-      <c r="AA10" s="89"/>
-      <c r="AB10" s="175"/>
-      <c r="AC10" s="175"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="83"/>
+      <c r="S10" s="113"/>
+      <c r="T10" s="113"/>
+      <c r="U10" s="113"/>
+      <c r="V10" s="113"/>
+      <c r="W10" s="128"/>
+      <c r="X10" s="128"/>
+      <c r="Y10" s="84"/>
+      <c r="Z10" s="85"/>
+      <c r="AA10" s="86"/>
+      <c r="AB10" s="263"/>
+      <c r="AC10" s="263"/>
     </row>
     <row r="11" spans="1:29" ht="22.9" customHeight="1">
-      <c r="A11" s="103"/>
-      <c r="B11" s="104"/>
-      <c r="C11" s="63">
+      <c r="A11" s="100"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="62">
         <v>9</v>
       </c>
-      <c r="D11" s="66"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="111"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="86"/>
-      <c r="Q11" s="86"/>
-      <c r="R11" s="86"/>
-      <c r="S11" s="116"/>
-      <c r="T11" s="116"/>
-      <c r="U11" s="116"/>
-      <c r="V11" s="116"/>
-      <c r="W11" s="131"/>
-      <c r="X11" s="131"/>
-      <c r="Y11" s="87"/>
-      <c r="Z11" s="88"/>
-      <c r="AA11" s="89"/>
-      <c r="AB11" s="175"/>
-      <c r="AC11" s="175"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="107"/>
+      <c r="M11" s="108"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="83"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="113"/>
+      <c r="T11" s="113"/>
+      <c r="U11" s="113"/>
+      <c r="V11" s="113"/>
+      <c r="W11" s="128"/>
+      <c r="X11" s="128"/>
+      <c r="Y11" s="84"/>
+      <c r="Z11" s="85"/>
+      <c r="AA11" s="86"/>
+      <c r="AB11" s="263"/>
+      <c r="AC11" s="263"/>
     </row>
     <row r="12" spans="1:29" ht="22.9" customHeight="1">
-      <c r="A12" s="103"/>
-      <c r="B12" s="104"/>
-      <c r="C12" s="63">
+      <c r="A12" s="100"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="62">
         <v>10</v>
       </c>
-      <c r="D12" s="66"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="111"/>
-      <c r="N12" s="86"/>
-      <c r="O12" s="86"/>
-      <c r="P12" s="86"/>
-      <c r="Q12" s="86"/>
-      <c r="R12" s="86"/>
-      <c r="S12" s="116"/>
-      <c r="T12" s="116"/>
-      <c r="U12" s="116"/>
-      <c r="V12" s="116"/>
-      <c r="W12" s="143"/>
-      <c r="X12" s="143"/>
-      <c r="Y12" s="87"/>
-      <c r="Z12" s="88"/>
-      <c r="AA12" s="89"/>
-      <c r="AB12" s="186"/>
-      <c r="AC12" s="186"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="107"/>
+      <c r="M12" s="108"/>
+      <c r="N12" s="83"/>
+      <c r="O12" s="83"/>
+      <c r="P12" s="83"/>
+      <c r="Q12" s="83"/>
+      <c r="R12" s="83"/>
+      <c r="S12" s="113"/>
+      <c r="T12" s="113"/>
+      <c r="U12" s="113"/>
+      <c r="V12" s="113"/>
+      <c r="W12" s="138"/>
+      <c r="X12" s="138"/>
+      <c r="Y12" s="84"/>
+      <c r="Z12" s="85"/>
+      <c r="AA12" s="86"/>
+      <c r="AB12" s="111"/>
+      <c r="AC12" s="111"/>
     </row>
     <row r="13" spans="1:29" ht="22.9" customHeight="1">
-      <c r="A13" s="103"/>
-      <c r="B13" s="104"/>
-      <c r="C13" s="63">
+      <c r="A13" s="100"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="62">
         <v>11</v>
       </c>
-      <c r="D13" s="66"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="86"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="86"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="86"/>
-      <c r="S13" s="116"/>
-      <c r="T13" s="116"/>
-      <c r="U13" s="116"/>
-      <c r="V13" s="116"/>
-      <c r="W13" s="143"/>
-      <c r="X13" s="143"/>
-      <c r="Y13" s="87"/>
-      <c r="Z13" s="88"/>
-      <c r="AA13" s="89"/>
-      <c r="AB13" s="186"/>
-      <c r="AC13" s="186"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="107"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="113"/>
+      <c r="T13" s="113"/>
+      <c r="U13" s="113"/>
+      <c r="V13" s="113"/>
+      <c r="W13" s="138"/>
+      <c r="X13" s="138"/>
+      <c r="Y13" s="84"/>
+      <c r="Z13" s="85"/>
+      <c r="AA13" s="86"/>
+      <c r="AB13" s="111"/>
+      <c r="AC13" s="111"/>
     </row>
     <row r="14" spans="1:29" ht="22.9" customHeight="1">
-      <c r="A14" s="103"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="63">
+      <c r="A14" s="100"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="62">
         <v>12</v>
       </c>
-      <c r="D14" s="66"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="109"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="111"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="86"/>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="86"/>
-      <c r="S14" s="116"/>
-      <c r="T14" s="116"/>
-      <c r="U14" s="116"/>
-      <c r="V14" s="116"/>
-      <c r="W14" s="83"/>
-      <c r="X14" s="83"/>
-      <c r="Y14" s="87"/>
-      <c r="Z14" s="88"/>
-      <c r="AA14" s="89"/>
-      <c r="AB14" s="186"/>
-      <c r="AC14" s="186"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="113"/>
+      <c r="T14" s="113"/>
+      <c r="U14" s="113"/>
+      <c r="V14" s="113"/>
+      <c r="W14" s="80"/>
+      <c r="X14" s="80"/>
+      <c r="Y14" s="84"/>
+      <c r="Z14" s="85"/>
+      <c r="AA14" s="86"/>
+      <c r="AB14" s="111"/>
+      <c r="AC14" s="111"/>
     </row>
     <row r="15" spans="1:29" ht="22.9" customHeight="1">
-      <c r="A15" s="103"/>
-      <c r="B15" s="104"/>
-      <c r="C15" s="63">
+      <c r="A15" s="100"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="62">
         <v>13</v>
       </c>
-      <c r="D15" s="66"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="111"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="86"/>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="86"/>
-      <c r="R15" s="86"/>
-      <c r="S15" s="116"/>
-      <c r="T15" s="116"/>
-      <c r="U15" s="116"/>
-      <c r="V15" s="116"/>
-      <c r="W15" s="130"/>
-      <c r="X15" s="130"/>
-      <c r="Y15" s="87"/>
-      <c r="Z15" s="88"/>
-      <c r="AA15" s="89"/>
-      <c r="AB15" s="186"/>
-      <c r="AC15" s="186"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="83"/>
+      <c r="P15" s="83"/>
+      <c r="Q15" s="83"/>
+      <c r="R15" s="83"/>
+      <c r="S15" s="113"/>
+      <c r="T15" s="113"/>
+      <c r="U15" s="113"/>
+      <c r="V15" s="113"/>
+      <c r="W15" s="127"/>
+      <c r="X15" s="127"/>
+      <c r="Y15" s="84"/>
+      <c r="Z15" s="85"/>
+      <c r="AA15" s="86"/>
+      <c r="AB15" s="111"/>
+      <c r="AC15" s="111"/>
     </row>
     <row r="16" spans="1:29" ht="22.9" customHeight="1" thickBot="1">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="63">
+      <c r="C16" s="62">
         <v>14</v>
       </c>
-      <c r="D16" s="66"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="111"/>
-      <c r="N16" s="86"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="86"/>
-      <c r="Q16" s="86"/>
-      <c r="R16" s="86"/>
-      <c r="S16" s="83"/>
-      <c r="T16" s="83"/>
-      <c r="U16" s="83"/>
-      <c r="V16" s="83"/>
-      <c r="W16" s="83"/>
-      <c r="X16" s="83"/>
-      <c r="Y16" s="87"/>
-      <c r="Z16" s="88"/>
-      <c r="AA16" s="89"/>
-      <c r="AB16" s="186"/>
-      <c r="AC16" s="186"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="108"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="83"/>
+      <c r="Q16" s="83"/>
+      <c r="R16" s="83"/>
+      <c r="S16" s="80"/>
+      <c r="T16" s="80"/>
+      <c r="U16" s="80"/>
+      <c r="V16" s="80"/>
+      <c r="W16" s="80"/>
+      <c r="X16" s="80"/>
+      <c r="Y16" s="84"/>
+      <c r="Z16" s="85"/>
+      <c r="AA16" s="86"/>
+      <c r="AB16" s="111"/>
+      <c r="AC16" s="111"/>
     </row>
     <row r="17" spans="1:30" ht="22.9" customHeight="1">
-      <c r="A17" s="166" t="s">
+      <c r="A17" s="160" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="63">
+      <c r="C17" s="62">
         <v>15</v>
       </c>
-      <c r="D17" s="66"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="111"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="86"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="86"/>
-      <c r="S17" s="83"/>
-      <c r="T17" s="83"/>
-      <c r="U17" s="83"/>
-      <c r="V17" s="83"/>
-      <c r="W17" s="83"/>
-      <c r="X17" s="83"/>
-      <c r="Y17" s="87"/>
-      <c r="Z17" s="88"/>
-      <c r="AA17" s="89"/>
-      <c r="AB17" s="186"/>
-      <c r="AC17" s="186"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="108"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="83"/>
+      <c r="P17" s="83"/>
+      <c r="Q17" s="83"/>
+      <c r="R17" s="83"/>
+      <c r="S17" s="80"/>
+      <c r="T17" s="80"/>
+      <c r="U17" s="80"/>
+      <c r="V17" s="80"/>
+      <c r="W17" s="80"/>
+      <c r="X17" s="80"/>
+      <c r="Y17" s="84"/>
+      <c r="Z17" s="85"/>
+      <c r="AA17" s="86"/>
+      <c r="AB17" s="111"/>
+      <c r="AC17" s="111"/>
     </row>
     <row r="18" spans="1:30" ht="22.9" customHeight="1">
-      <c r="A18" s="167"/>
+      <c r="A18" s="161"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="63">
+      <c r="C18" s="62">
         <v>16</v>
       </c>
-      <c r="D18" s="66"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="111"/>
-      <c r="N18" s="86"/>
-      <c r="O18" s="86"/>
-      <c r="P18" s="86"/>
-      <c r="Q18" s="86"/>
-      <c r="R18" s="86"/>
-      <c r="S18" s="99"/>
-      <c r="T18" s="100"/>
-      <c r="U18" s="99"/>
-      <c r="V18" s="100"/>
-      <c r="W18" s="139"/>
-      <c r="X18" s="140"/>
-      <c r="Y18" s="87"/>
-      <c r="Z18" s="88"/>
-      <c r="AA18" s="89"/>
-      <c r="AB18" s="227"/>
-      <c r="AC18" s="228"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="108"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="83"/>
+      <c r="P18" s="83"/>
+      <c r="Q18" s="83"/>
+      <c r="R18" s="83"/>
+      <c r="S18" s="96"/>
+      <c r="T18" s="97"/>
+      <c r="U18" s="96"/>
+      <c r="V18" s="97"/>
+      <c r="W18" s="136"/>
+      <c r="X18" s="137"/>
+      <c r="Y18" s="84"/>
+      <c r="Z18" s="85"/>
+      <c r="AA18" s="86"/>
+      <c r="AB18" s="106"/>
+      <c r="AC18" s="108"/>
     </row>
     <row r="19" spans="1:30" ht="22.9" customHeight="1">
-      <c r="A19" s="167"/>
+      <c r="A19" s="161"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="63">
+      <c r="C19" s="62">
         <v>17</v>
       </c>
-      <c r="D19" s="66"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="110"/>
-      <c r="L19" s="110"/>
-      <c r="M19" s="111"/>
-      <c r="N19" s="86"/>
-      <c r="O19" s="86"/>
-      <c r="P19" s="86"/>
-      <c r="Q19" s="86"/>
-      <c r="R19" s="86"/>
-      <c r="S19" s="99"/>
-      <c r="T19" s="100"/>
-      <c r="U19" s="99"/>
-      <c r="V19" s="100"/>
-      <c r="W19" s="139"/>
-      <c r="X19" s="140"/>
-      <c r="Y19" s="87"/>
-      <c r="Z19" s="88"/>
-      <c r="AA19" s="89"/>
-      <c r="AB19" s="227"/>
-      <c r="AC19" s="228"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="107"/>
+      <c r="K19" s="107"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="108"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="83"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="83"/>
+      <c r="R19" s="83"/>
+      <c r="S19" s="96"/>
+      <c r="T19" s="97"/>
+      <c r="U19" s="96"/>
+      <c r="V19" s="97"/>
+      <c r="W19" s="136"/>
+      <c r="X19" s="137"/>
+      <c r="Y19" s="84"/>
+      <c r="Z19" s="85"/>
+      <c r="AA19" s="86"/>
+      <c r="AB19" s="106"/>
+      <c r="AC19" s="108"/>
     </row>
     <row r="20" spans="1:30" ht="22.9" customHeight="1">
-      <c r="A20" s="167"/>
+      <c r="A20" s="161"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="63">
+      <c r="C20" s="62">
         <v>18</v>
       </c>
-      <c r="D20" s="66"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="110"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="111"/>
-      <c r="N20" s="86"/>
-      <c r="O20" s="86"/>
-      <c r="P20" s="86"/>
-      <c r="Q20" s="86"/>
-      <c r="R20" s="86"/>
-      <c r="S20" s="99"/>
-      <c r="T20" s="100"/>
-      <c r="U20" s="99"/>
-      <c r="V20" s="100"/>
-      <c r="W20" s="141"/>
-      <c r="X20" s="142"/>
-      <c r="Y20" s="87"/>
-      <c r="Z20" s="88"/>
-      <c r="AA20" s="89"/>
-      <c r="AB20" s="227"/>
-      <c r="AC20" s="228"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="108"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="83"/>
+      <c r="P20" s="83"/>
+      <c r="Q20" s="83"/>
+      <c r="R20" s="83"/>
+      <c r="S20" s="96"/>
+      <c r="T20" s="97"/>
+      <c r="U20" s="96"/>
+      <c r="V20" s="97"/>
+      <c r="W20" s="94"/>
+      <c r="X20" s="95"/>
+      <c r="Y20" s="84"/>
+      <c r="Z20" s="85"/>
+      <c r="AA20" s="86"/>
+      <c r="AB20" s="106"/>
+      <c r="AC20" s="108"/>
     </row>
     <row r="21" spans="1:30" ht="22.9" customHeight="1" thickBot="1">
-      <c r="A21" s="168"/>
+      <c r="A21" s="162"/>
       <c r="B21" s="10"/>
-      <c r="C21" s="63">
+      <c r="C21" s="62">
         <v>19</v>
       </c>
-      <c r="D21" s="66"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="110"/>
-      <c r="M21" s="111"/>
-      <c r="N21" s="86"/>
-      <c r="O21" s="86"/>
-      <c r="P21" s="86"/>
-      <c r="Q21" s="86"/>
-      <c r="R21" s="86"/>
-      <c r="S21" s="99"/>
-      <c r="T21" s="100"/>
-      <c r="U21" s="99"/>
-      <c r="V21" s="100"/>
-      <c r="W21" s="139"/>
-      <c r="X21" s="140"/>
-      <c r="Y21" s="87"/>
-      <c r="Z21" s="88"/>
-      <c r="AA21" s="89"/>
-      <c r="AB21" s="227"/>
-      <c r="AC21" s="228"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="108"/>
+      <c r="N21" s="83"/>
+      <c r="O21" s="83"/>
+      <c r="P21" s="83"/>
+      <c r="Q21" s="83"/>
+      <c r="R21" s="83"/>
+      <c r="S21" s="96"/>
+      <c r="T21" s="97"/>
+      <c r="U21" s="96"/>
+      <c r="V21" s="97"/>
+      <c r="W21" s="136"/>
+      <c r="X21" s="137"/>
+      <c r="Y21" s="84"/>
+      <c r="Z21" s="85"/>
+      <c r="AA21" s="86"/>
+      <c r="AB21" s="106"/>
+      <c r="AC21" s="108"/>
     </row>
     <row r="22" spans="1:30" ht="22.9" customHeight="1" thickBot="1">
-      <c r="A22" s="112" t="s">
+      <c r="A22" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="112"/>
-      <c r="C22" s="63">
+      <c r="B22" s="109"/>
+      <c r="C22" s="62">
         <v>20</v>
       </c>
-      <c r="D22" s="66"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="110"/>
-      <c r="J22" s="110"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="110"/>
-      <c r="M22" s="111"/>
-      <c r="N22" s="86"/>
-      <c r="O22" s="86"/>
-      <c r="P22" s="86"/>
-      <c r="Q22" s="86"/>
-      <c r="R22" s="86"/>
-      <c r="S22" s="99"/>
-      <c r="T22" s="100"/>
-      <c r="U22" s="99"/>
-      <c r="V22" s="100"/>
-      <c r="W22" s="97"/>
-      <c r="X22" s="98"/>
-      <c r="Y22" s="87"/>
-      <c r="Z22" s="88"/>
-      <c r="AA22" s="89"/>
-      <c r="AB22" s="227"/>
-      <c r="AC22" s="228"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="107"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="107"/>
+      <c r="L22" s="107"/>
+      <c r="M22" s="108"/>
+      <c r="N22" s="83"/>
+      <c r="O22" s="83"/>
+      <c r="P22" s="83"/>
+      <c r="Q22" s="83"/>
+      <c r="R22" s="83"/>
+      <c r="S22" s="96"/>
+      <c r="T22" s="97"/>
+      <c r="U22" s="96"/>
+      <c r="V22" s="97"/>
+      <c r="W22" s="94"/>
+      <c r="X22" s="95"/>
+      <c r="Y22" s="84"/>
+      <c r="Z22" s="85"/>
+      <c r="AA22" s="86"/>
+      <c r="AB22" s="106"/>
+      <c r="AC22" s="108"/>
     </row>
     <row r="23" spans="1:30" ht="22.9" customHeight="1" thickBot="1">
-      <c r="A23" s="112"/>
-      <c r="B23" s="112"/>
-      <c r="C23" s="63">
+      <c r="A23" s="109"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="62">
         <v>21</v>
       </c>
-      <c r="D23" s="66"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="109"/>
-      <c r="H23" s="110"/>
-      <c r="I23" s="110"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="110"/>
-      <c r="L23" s="110"/>
-      <c r="M23" s="111"/>
-      <c r="N23" s="86"/>
-      <c r="O23" s="86"/>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="86"/>
-      <c r="R23" s="86"/>
-      <c r="S23" s="99"/>
-      <c r="T23" s="100"/>
-      <c r="U23" s="99"/>
-      <c r="V23" s="100"/>
-      <c r="W23" s="136"/>
-      <c r="X23" s="137"/>
-      <c r="Y23" s="87"/>
-      <c r="Z23" s="88"/>
-      <c r="AA23" s="89"/>
-      <c r="AB23" s="227"/>
-      <c r="AC23" s="228"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="107"/>
+      <c r="L23" s="107"/>
+      <c r="M23" s="108"/>
+      <c r="N23" s="83"/>
+      <c r="O23" s="83"/>
+      <c r="P23" s="83"/>
+      <c r="Q23" s="83"/>
+      <c r="R23" s="83"/>
+      <c r="S23" s="96"/>
+      <c r="T23" s="97"/>
+      <c r="U23" s="96"/>
+      <c r="V23" s="97"/>
+      <c r="W23" s="133"/>
+      <c r="X23" s="134"/>
+      <c r="Y23" s="84"/>
+      <c r="Z23" s="85"/>
+      <c r="AA23" s="86"/>
+      <c r="AB23" s="106"/>
+      <c r="AC23" s="108"/>
     </row>
     <row r="24" spans="1:30" ht="22.9" customHeight="1" thickBot="1">
-      <c r="A24" s="112"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="63">
+      <c r="A24" s="109"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="62">
         <v>22</v>
       </c>
-      <c r="D24" s="66"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="110"/>
-      <c r="L24" s="110"/>
-      <c r="M24" s="111"/>
-      <c r="N24" s="86"/>
-      <c r="O24" s="86"/>
-      <c r="P24" s="86"/>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="86"/>
-      <c r="S24" s="99"/>
-      <c r="T24" s="100"/>
-      <c r="U24" s="99"/>
-      <c r="V24" s="100"/>
-      <c r="W24" s="136"/>
-      <c r="X24" s="137"/>
-      <c r="Y24" s="87"/>
-      <c r="Z24" s="88"/>
-      <c r="AA24" s="89"/>
-      <c r="AB24" s="227"/>
-      <c r="AC24" s="228"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="107"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="108"/>
+      <c r="N24" s="83"/>
+      <c r="O24" s="83"/>
+      <c r="P24" s="83"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="83"/>
+      <c r="S24" s="96"/>
+      <c r="T24" s="97"/>
+      <c r="U24" s="96"/>
+      <c r="V24" s="97"/>
+      <c r="W24" s="133"/>
+      <c r="X24" s="134"/>
+      <c r="Y24" s="84"/>
+      <c r="Z24" s="85"/>
+      <c r="AA24" s="86"/>
+      <c r="AB24" s="106"/>
+      <c r="AC24" s="108"/>
     </row>
     <row r="25" spans="1:30" ht="22.9" customHeight="1" thickBot="1">
-      <c r="A25" s="151" t="s">
+      <c r="A25" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="112"/>
-      <c r="C25" s="63">
+      <c r="B25" s="109"/>
+      <c r="C25" s="62">
         <v>23</v>
       </c>
-      <c r="D25" s="66"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="110"/>
-      <c r="L25" s="110"/>
-      <c r="M25" s="111"/>
-      <c r="N25" s="86"/>
-      <c r="O25" s="86"/>
-      <c r="P25" s="86"/>
-      <c r="Q25" s="86"/>
-      <c r="R25" s="86"/>
-      <c r="S25" s="99"/>
-      <c r="T25" s="100"/>
-      <c r="U25" s="99"/>
-      <c r="V25" s="100"/>
-      <c r="W25" s="136"/>
-      <c r="X25" s="137"/>
-      <c r="Y25" s="87"/>
-      <c r="Z25" s="88"/>
-      <c r="AA25" s="89"/>
-      <c r="AB25" s="227"/>
-      <c r="AC25" s="228"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="107"/>
+      <c r="M25" s="108"/>
+      <c r="N25" s="83"/>
+      <c r="O25" s="83"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="83"/>
+      <c r="R25" s="83"/>
+      <c r="S25" s="96"/>
+      <c r="T25" s="97"/>
+      <c r="U25" s="96"/>
+      <c r="V25" s="97"/>
+      <c r="W25" s="133"/>
+      <c r="X25" s="134"/>
+      <c r="Y25" s="84"/>
+      <c r="Z25" s="85"/>
+      <c r="AA25" s="86"/>
+      <c r="AB25" s="106"/>
+      <c r="AC25" s="108"/>
     </row>
     <row r="26" spans="1:30" ht="22.9" customHeight="1" thickBot="1">
-      <c r="A26" s="151"/>
-      <c r="B26" s="112"/>
-      <c r="C26" s="67">
+      <c r="A26" s="143"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="65">
         <v>24</v>
       </c>
-      <c r="D26" s="68"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="107"/>
-      <c r="K26" s="107"/>
-      <c r="L26" s="107"/>
-      <c r="M26" s="108"/>
-      <c r="N26" s="126"/>
-      <c r="O26" s="126"/>
-      <c r="P26" s="126"/>
-      <c r="Q26" s="126"/>
-      <c r="R26" s="126"/>
-      <c r="S26" s="101"/>
-      <c r="T26" s="102"/>
-      <c r="U26" s="101"/>
-      <c r="V26" s="102"/>
-      <c r="W26" s="154"/>
-      <c r="X26" s="155"/>
-      <c r="Y26" s="148"/>
-      <c r="Z26" s="149"/>
-      <c r="AA26" s="150"/>
-      <c r="AB26" s="277"/>
-      <c r="AC26" s="278"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="104"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="104"/>
+      <c r="M26" s="105"/>
+      <c r="N26" s="123"/>
+      <c r="O26" s="123"/>
+      <c r="P26" s="123"/>
+      <c r="Q26" s="123"/>
+      <c r="R26" s="123"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="99"/>
+      <c r="U26" s="98"/>
+      <c r="V26" s="99"/>
+      <c r="W26" s="148"/>
+      <c r="X26" s="149"/>
+      <c r="Y26" s="140"/>
+      <c r="Z26" s="141"/>
+      <c r="AA26" s="142"/>
+      <c r="AB26" s="103"/>
+      <c r="AC26" s="105"/>
     </row>
     <row r="27" spans="1:30" ht="22.9" customHeight="1" thickBot="1">
-      <c r="A27" s="151"/>
-      <c r="B27" s="112"/>
+      <c r="A27" s="143"/>
+      <c r="B27" s="109"/>
       <c r="C27" s="11"/>
       <c r="D27" s="12"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="105"/>
-      <c r="I27" s="105"/>
-      <c r="J27" s="105"/>
-      <c r="K27" s="105"/>
-      <c r="L27" s="105"/>
-      <c r="M27" s="105"/>
-      <c r="N27" s="156"/>
-      <c r="O27" s="156"/>
-      <c r="P27" s="156"/>
-      <c r="Q27" s="156"/>
-      <c r="R27" s="156"/>
-      <c r="S27" s="156"/>
-      <c r="T27" s="156"/>
-      <c r="U27" s="156"/>
-      <c r="V27" s="156"/>
-      <c r="W27" s="144"/>
-      <c r="X27" s="144"/>
-      <c r="Y27" s="144"/>
-      <c r="Z27" s="144"/>
-      <c r="AA27" s="144"/>
-      <c r="AB27" s="152"/>
-      <c r="AC27" s="153"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="102"/>
+      <c r="M27" s="102"/>
+      <c r="N27" s="150"/>
+      <c r="O27" s="150"/>
+      <c r="P27" s="150"/>
+      <c r="Q27" s="150"/>
+      <c r="R27" s="150"/>
+      <c r="S27" s="150"/>
+      <c r="T27" s="150"/>
+      <c r="U27" s="150"/>
+      <c r="V27" s="150"/>
+      <c r="W27" s="139"/>
+      <c r="X27" s="139"/>
+      <c r="Y27" s="139"/>
+      <c r="Z27" s="139"/>
+      <c r="AA27" s="139"/>
+      <c r="AB27" s="146"/>
+      <c r="AC27" s="147"/>
       <c r="AD27" s="5"/>
     </row>
     <row r="28" spans="1:30" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A28" s="151" t="s">
+      <c r="A28" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="112"/>
+      <c r="B28" s="109"/>
       <c r="C28" s="13"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -3038,23 +2977,23 @@
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
       <c r="P28" s="14"/>
-      <c r="Q28" s="157"/>
-      <c r="R28" s="90"/>
-      <c r="S28" s="90"/>
-      <c r="T28" s="90"/>
-      <c r="U28" s="90"/>
-      <c r="V28" s="90"/>
-      <c r="W28" s="90"/>
-      <c r="X28" s="157"/>
-      <c r="Y28" s="157"/>
-      <c r="Z28" s="157"/>
-      <c r="AA28" s="157"/>
-      <c r="AB28" s="157"/>
-      <c r="AC28" s="157"/>
+      <c r="Q28" s="151"/>
+      <c r="R28" s="87"/>
+      <c r="S28" s="87"/>
+      <c r="T28" s="87"/>
+      <c r="U28" s="87"/>
+      <c r="V28" s="87"/>
+      <c r="W28" s="87"/>
+      <c r="X28" s="151"/>
+      <c r="Y28" s="151"/>
+      <c r="Z28" s="151"/>
+      <c r="AA28" s="151"/>
+      <c r="AB28" s="151"/>
+      <c r="AC28" s="151"/>
     </row>
     <row r="29" spans="1:30" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A29" s="151"/>
-      <c r="B29" s="112"/>
+      <c r="A29" s="143"/>
+      <c r="B29" s="109"/>
       <c r="C29" s="13"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -3069,23 +3008,23 @@
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
-      <c r="Q29" s="157"/>
-      <c r="R29" s="90"/>
-      <c r="S29" s="90"/>
-      <c r="T29" s="90"/>
-      <c r="U29" s="90"/>
-      <c r="V29" s="90"/>
-      <c r="W29" s="90"/>
-      <c r="X29" s="157"/>
-      <c r="Y29" s="157"/>
-      <c r="Z29" s="157"/>
-      <c r="AA29" s="157"/>
-      <c r="AB29" s="157"/>
-      <c r="AC29" s="157"/>
+      <c r="Q29" s="151"/>
+      <c r="R29" s="87"/>
+      <c r="S29" s="87"/>
+      <c r="T29" s="87"/>
+      <c r="U29" s="87"/>
+      <c r="V29" s="87"/>
+      <c r="W29" s="87"/>
+      <c r="X29" s="151"/>
+      <c r="Y29" s="151"/>
+      <c r="Z29" s="151"/>
+      <c r="AA29" s="151"/>
+      <c r="AB29" s="151"/>
+      <c r="AC29" s="151"/>
     </row>
     <row r="30" spans="1:30" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A30" s="151"/>
-      <c r="B30" s="112"/>
+      <c r="A30" s="143"/>
+      <c r="B30" s="109"/>
       <c r="C30" s="13"/>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
@@ -3100,309 +3039,309 @@
       <c r="N30" s="17"/>
       <c r="O30" s="17"/>
       <c r="P30" s="17"/>
-      <c r="Q30" s="157"/>
-      <c r="R30" s="157"/>
-      <c r="S30" s="157"/>
-      <c r="T30" s="157"/>
-      <c r="U30" s="157"/>
-      <c r="V30" s="157"/>
-      <c r="W30" s="157"/>
-      <c r="X30" s="157"/>
-      <c r="Y30" s="157"/>
-      <c r="Z30" s="157"/>
-      <c r="AA30" s="157"/>
-      <c r="AB30" s="157"/>
-      <c r="AC30" s="157"/>
+      <c r="Q30" s="151"/>
+      <c r="R30" s="151"/>
+      <c r="S30" s="151"/>
+      <c r="T30" s="151"/>
+      <c r="U30" s="151"/>
+      <c r="V30" s="151"/>
+      <c r="W30" s="151"/>
+      <c r="X30" s="151"/>
+      <c r="Y30" s="151"/>
+      <c r="Z30" s="151"/>
+      <c r="AA30" s="151"/>
+      <c r="AB30" s="151"/>
+      <c r="AC30" s="151"/>
     </row>
     <row r="31" spans="1:30" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A31" s="151"/>
-      <c r="B31" s="112"/>
+      <c r="A31" s="143"/>
+      <c r="B31" s="109"/>
       <c r="C31" s="13"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="122"/>
-      <c r="I31" s="122"/>
-      <c r="J31" s="122"/>
-      <c r="K31" s="122"/>
-      <c r="L31" s="122"/>
-      <c r="M31" s="122"/>
-      <c r="N31" s="122"/>
+      <c r="H31" s="119"/>
+      <c r="I31" s="119"/>
+      <c r="J31" s="119"/>
+      <c r="K31" s="119"/>
+      <c r="L31" s="119"/>
+      <c r="M31" s="119"/>
+      <c r="N31" s="119"/>
       <c r="O31" s="18"/>
       <c r="P31" s="18"/>
-      <c r="Q31" s="160"/>
-      <c r="R31" s="161"/>
-      <c r="S31" s="161"/>
-      <c r="T31" s="161"/>
-      <c r="U31" s="161"/>
-      <c r="V31" s="161"/>
-      <c r="W31" s="161"/>
-      <c r="X31" s="161"/>
-      <c r="Y31" s="161"/>
-      <c r="Z31" s="161"/>
-      <c r="AA31" s="161"/>
-      <c r="AB31" s="161"/>
-      <c r="AC31" s="162"/>
+      <c r="Q31" s="154"/>
+      <c r="R31" s="155"/>
+      <c r="S31" s="155"/>
+      <c r="T31" s="155"/>
+      <c r="U31" s="155"/>
+      <c r="V31" s="155"/>
+      <c r="W31" s="155"/>
+      <c r="X31" s="155"/>
+      <c r="Y31" s="155"/>
+      <c r="Z31" s="155"/>
+      <c r="AA31" s="155"/>
+      <c r="AB31" s="155"/>
+      <c r="AC31" s="156"/>
     </row>
     <row r="32" spans="1:30" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A32" s="151"/>
-      <c r="B32" s="112"/>
+      <c r="A32" s="143"/>
+      <c r="B32" s="109"/>
       <c r="C32" s="13"/>
       <c r="D32" s="7"/>
       <c r="E32" s="16"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
-      <c r="H32" s="123" t="s">
+      <c r="H32" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="I32" s="123"/>
-      <c r="J32" s="123" t="s">
+      <c r="I32" s="120"/>
+      <c r="J32" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="K32" s="123"/>
-      <c r="L32" s="123" t="s">
+      <c r="K32" s="120"/>
+      <c r="L32" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="M32" s="123"/>
-      <c r="N32" s="123"/>
+      <c r="M32" s="120"/>
+      <c r="N32" s="120"/>
       <c r="O32" s="19"/>
       <c r="P32" s="19"/>
-      <c r="Q32" s="160"/>
-      <c r="R32" s="161"/>
-      <c r="S32" s="161"/>
-      <c r="T32" s="161"/>
-      <c r="U32" s="161"/>
-      <c r="V32" s="161"/>
-      <c r="W32" s="161"/>
-      <c r="X32" s="161"/>
-      <c r="Y32" s="161"/>
-      <c r="Z32" s="161"/>
-      <c r="AA32" s="161"/>
-      <c r="AB32" s="161"/>
-      <c r="AC32" s="162"/>
+      <c r="Q32" s="154"/>
+      <c r="R32" s="155"/>
+      <c r="S32" s="155"/>
+      <c r="T32" s="155"/>
+      <c r="U32" s="155"/>
+      <c r="V32" s="155"/>
+      <c r="W32" s="155"/>
+      <c r="X32" s="155"/>
+      <c r="Y32" s="155"/>
+      <c r="Z32" s="155"/>
+      <c r="AA32" s="155"/>
+      <c r="AB32" s="155"/>
+      <c r="AC32" s="156"/>
     </row>
     <row r="33" spans="1:29" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A33" s="151"/>
-      <c r="B33" s="112"/>
+      <c r="A33" s="143"/>
+      <c r="B33" s="109"/>
       <c r="C33" s="13"/>
       <c r="D33" s="7"/>
       <c r="E33" s="16"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
-      <c r="H33" s="85" t="s">
+      <c r="H33" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="I33" s="85"/>
-      <c r="J33" s="85" t="s">
+      <c r="I33" s="82"/>
+      <c r="J33" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="K33" s="85"/>
-      <c r="L33" s="85" t="s">
+      <c r="K33" s="82"/>
+      <c r="L33" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="M33" s="85"/>
-      <c r="N33" s="85"/>
+      <c r="M33" s="82"/>
+      <c r="N33" s="82"/>
       <c r="O33" s="20" t="s">
         <v>7</v>
       </c>
       <c r="P33" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="Q33" s="163"/>
-      <c r="R33" s="164"/>
-      <c r="S33" s="164"/>
-      <c r="T33" s="164"/>
-      <c r="U33" s="164"/>
-      <c r="V33" s="164"/>
-      <c r="W33" s="164"/>
-      <c r="X33" s="164"/>
-      <c r="Y33" s="164"/>
-      <c r="Z33" s="164"/>
-      <c r="AA33" s="164"/>
-      <c r="AB33" s="164"/>
-      <c r="AC33" s="165"/>
+      <c r="Q33" s="157"/>
+      <c r="R33" s="158"/>
+      <c r="S33" s="158"/>
+      <c r="T33" s="158"/>
+      <c r="U33" s="158"/>
+      <c r="V33" s="158"/>
+      <c r="W33" s="158"/>
+      <c r="X33" s="158"/>
+      <c r="Y33" s="158"/>
+      <c r="Z33" s="158"/>
+      <c r="AA33" s="158"/>
+      <c r="AB33" s="158"/>
+      <c r="AC33" s="159"/>
     </row>
     <row r="34" spans="1:29" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A34" s="151" t="s">
+      <c r="A34" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="112"/>
+      <c r="B34" s="109"/>
       <c r="C34" s="13"/>
       <c r="D34" s="16"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="119" t="s">
+      <c r="H34" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="I34" s="119"/>
-      <c r="J34" s="119"/>
-      <c r="K34" s="119"/>
-      <c r="L34" s="124"/>
-      <c r="M34" s="124"/>
-      <c r="N34" s="124"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="116"/>
+      <c r="K34" s="116"/>
+      <c r="L34" s="121"/>
+      <c r="M34" s="121"/>
+      <c r="N34" s="121"/>
       <c r="O34" s="21"/>
       <c r="P34" s="21"/>
-      <c r="Q34" s="91"/>
-      <c r="R34" s="92"/>
-      <c r="S34" s="92"/>
-      <c r="T34" s="92"/>
-      <c r="U34" s="92"/>
-      <c r="V34" s="92"/>
-      <c r="W34" s="93"/>
-      <c r="X34" s="85" t="s">
+      <c r="Q34" s="88"/>
+      <c r="R34" s="89"/>
+      <c r="S34" s="89"/>
+      <c r="T34" s="89"/>
+      <c r="U34" s="89"/>
+      <c r="V34" s="89"/>
+      <c r="W34" s="90"/>
+      <c r="X34" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="Y34" s="85"/>
-      <c r="Z34" s="85"/>
-      <c r="AA34" s="158" t="s">
+      <c r="Y34" s="82"/>
+      <c r="Z34" s="82"/>
+      <c r="AA34" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="AB34" s="159"/>
+      <c r="AB34" s="153"/>
       <c r="AC34" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A35" s="151"/>
-      <c r="B35" s="112"/>
+      <c r="A35" s="143"/>
+      <c r="B35" s="109"/>
       <c r="C35" s="13"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="120" t="s">
+      <c r="H35" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="I35" s="120"/>
-      <c r="J35" s="120"/>
-      <c r="K35" s="120"/>
-      <c r="L35" s="125"/>
-      <c r="M35" s="125"/>
-      <c r="N35" s="125"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="117"/>
+      <c r="K35" s="117"/>
+      <c r="L35" s="122"/>
+      <c r="M35" s="122"/>
+      <c r="N35" s="122"/>
       <c r="O35" s="22"/>
       <c r="P35" s="22"/>
-      <c r="Q35" s="94"/>
-      <c r="R35" s="95"/>
-      <c r="S35" s="95"/>
-      <c r="T35" s="95"/>
-      <c r="U35" s="95"/>
-      <c r="V35" s="95"/>
-      <c r="W35" s="96"/>
+      <c r="Q35" s="91"/>
+      <c r="R35" s="92"/>
+      <c r="S35" s="92"/>
+      <c r="T35" s="92"/>
+      <c r="U35" s="92"/>
+      <c r="V35" s="92"/>
+      <c r="W35" s="93"/>
       <c r="X35" s="20"/>
       <c r="Y35" s="20"/>
       <c r="Z35" s="20"/>
-      <c r="AA35" s="158">
+      <c r="AA35" s="152">
         <v>1</v>
       </c>
-      <c r="AB35" s="159"/>
+      <c r="AB35" s="153"/>
       <c r="AC35" s="20">
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A36" s="151"/>
-      <c r="B36" s="112"/>
+      <c r="A36" s="143"/>
+      <c r="B36" s="109"/>
       <c r="C36" s="13"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="120" t="s">
+      <c r="H36" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="I36" s="120"/>
-      <c r="J36" s="120"/>
-      <c r="K36" s="120"/>
-      <c r="L36" s="125"/>
-      <c r="M36" s="125"/>
-      <c r="N36" s="125"/>
+      <c r="I36" s="117"/>
+      <c r="J36" s="117"/>
+      <c r="K36" s="117"/>
+      <c r="L36" s="122"/>
+      <c r="M36" s="122"/>
+      <c r="N36" s="122"/>
       <c r="O36" s="22"/>
       <c r="P36" s="22"/>
-      <c r="Q36" s="94"/>
-      <c r="R36" s="95"/>
-      <c r="S36" s="95"/>
-      <c r="T36" s="95"/>
-      <c r="U36" s="95"/>
-      <c r="V36" s="95"/>
-      <c r="W36" s="96"/>
-      <c r="X36" s="84" t="s">
+      <c r="Q36" s="91"/>
+      <c r="R36" s="92"/>
+      <c r="S36" s="92"/>
+      <c r="T36" s="92"/>
+      <c r="U36" s="92"/>
+      <c r="V36" s="92"/>
+      <c r="W36" s="93"/>
+      <c r="X36" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="Y36" s="84"/>
-      <c r="Z36" s="84"/>
-      <c r="AA36" s="84"/>
-      <c r="AB36" s="84"/>
-      <c r="AC36" s="84"/>
+      <c r="Y36" s="81"/>
+      <c r="Z36" s="81"/>
+      <c r="AA36" s="81"/>
+      <c r="AB36" s="81"/>
+      <c r="AC36" s="81"/>
     </row>
     <row r="37" spans="1:29" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A37" s="151"/>
-      <c r="B37" s="112"/>
+      <c r="A37" s="143"/>
+      <c r="B37" s="109"/>
       <c r="C37" s="13"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
-      <c r="H37" s="120" t="s">
+      <c r="H37" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="I37" s="120"/>
-      <c r="J37" s="120"/>
-      <c r="K37" s="120"/>
-      <c r="L37" s="125"/>
-      <c r="M37" s="125"/>
-      <c r="N37" s="125"/>
+      <c r="I37" s="117"/>
+      <c r="J37" s="117"/>
+      <c r="K37" s="117"/>
+      <c r="L37" s="122"/>
+      <c r="M37" s="122"/>
+      <c r="N37" s="122"/>
       <c r="O37" s="22"/>
       <c r="P37" s="22"/>
-      <c r="Q37" s="94"/>
-      <c r="R37" s="95"/>
-      <c r="S37" s="95"/>
-      <c r="T37" s="95"/>
-      <c r="U37" s="95"/>
-      <c r="V37" s="95"/>
-      <c r="W37" s="96"/>
-      <c r="X37" s="84"/>
-      <c r="Y37" s="84"/>
-      <c r="Z37" s="84"/>
-      <c r="AA37" s="84"/>
-      <c r="AB37" s="84"/>
-      <c r="AC37" s="84"/>
+      <c r="Q37" s="91"/>
+      <c r="R37" s="92"/>
+      <c r="S37" s="92"/>
+      <c r="T37" s="92"/>
+      <c r="U37" s="92"/>
+      <c r="V37" s="92"/>
+      <c r="W37" s="93"/>
+      <c r="X37" s="81"/>
+      <c r="Y37" s="81"/>
+      <c r="Z37" s="81"/>
+      <c r="AA37" s="81"/>
+      <c r="AB37" s="81"/>
+      <c r="AC37" s="81"/>
     </row>
     <row r="38" spans="1:29" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A38" s="151"/>
-      <c r="B38" s="112"/>
+      <c r="A38" s="143"/>
+      <c r="B38" s="109"/>
       <c r="C38" s="23"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
       <c r="G38" s="25"/>
-      <c r="H38" s="118" t="s">
+      <c r="H38" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="I38" s="118"/>
-      <c r="J38" s="118"/>
-      <c r="K38" s="118"/>
-      <c r="L38" s="121"/>
-      <c r="M38" s="121"/>
-      <c r="N38" s="121"/>
+      <c r="I38" s="115"/>
+      <c r="J38" s="115"/>
+      <c r="K38" s="115"/>
+      <c r="L38" s="118"/>
+      <c r="M38" s="118"/>
+      <c r="N38" s="118"/>
       <c r="O38" s="26"/>
       <c r="P38" s="26"/>
-      <c r="Q38" s="80" t="s">
+      <c r="Q38" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="R38" s="81"/>
-      <c r="S38" s="81"/>
-      <c r="T38" s="81"/>
-      <c r="U38" s="81"/>
-      <c r="V38" s="81"/>
-      <c r="W38" s="82"/>
-      <c r="X38" s="84"/>
-      <c r="Y38" s="84"/>
-      <c r="Z38" s="84"/>
-      <c r="AA38" s="84"/>
-      <c r="AB38" s="84"/>
-      <c r="AC38" s="84"/>
+      <c r="R38" s="78"/>
+      <c r="S38" s="78"/>
+      <c r="T38" s="78"/>
+      <c r="U38" s="78"/>
+      <c r="V38" s="78"/>
+      <c r="W38" s="79"/>
+      <c r="X38" s="81"/>
+      <c r="Y38" s="81"/>
+      <c r="Z38" s="81"/>
+      <c r="AA38" s="81"/>
+      <c r="AB38" s="81"/>
+      <c r="AC38" s="81"/>
     </row>
     <row r="39" spans="1:29" ht="15.75">
       <c r="A39" s="27"/>
@@ -3686,8 +3625,8 @@
   </sheetPr>
   <dimension ref="A1:AD39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E32"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="AB3" sqref="AB3:AD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
@@ -3723,1124 +3662,1124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A1" s="103"/>
-      <c r="B1" s="104"/>
-      <c r="C1" s="112" t="s">
+      <c r="A1" s="100"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="113" t="s">
+      <c r="E1" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="113" t="s">
+      <c r="F1" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="113" t="s">
+      <c r="G1" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113" t="s">
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113" t="s">
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
-      <c r="Y1" s="113"/>
-      <c r="Z1" s="113"/>
-      <c r="AA1" s="113"/>
-      <c r="AB1" s="113" t="s">
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
+      <c r="X1" s="110"/>
+      <c r="Y1" s="110"/>
+      <c r="Z1" s="110"/>
+      <c r="AA1" s="110"/>
+      <c r="AB1" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="AC1" s="113"/>
-      <c r="AD1" s="113"/>
+      <c r="AC1" s="110"/>
+      <c r="AD1" s="110"/>
     </row>
     <row r="2" spans="1:30" ht="51" customHeight="1" thickBot="1">
-      <c r="A2" s="103"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="115" t="s">
+      <c r="A2" s="100"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115" t="s">
+      <c r="T2" s="112"/>
+      <c r="U2" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="115"/>
-      <c r="W2" s="113" t="s">
+      <c r="V2" s="112"/>
+      <c r="W2" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="X2" s="113"/>
-      <c r="Y2" s="113" t="s">
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="Z2" s="113"/>
-      <c r="AA2" s="113"/>
-      <c r="AB2" s="113"/>
-      <c r="AC2" s="113"/>
-      <c r="AD2" s="113"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="110"/>
+      <c r="AD2" s="110"/>
     </row>
     <row r="3" spans="1:30" ht="23.1" customHeight="1">
-      <c r="A3" s="103"/>
-      <c r="B3" s="104"/>
+      <c r="A3" s="100"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="61">
         <v>1</v>
       </c>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="176"/>
-      <c r="K3" s="176"/>
-      <c r="L3" s="176"/>
-      <c r="M3" s="176"/>
-      <c r="N3" s="177"/>
-      <c r="O3" s="177"/>
-      <c r="P3" s="177"/>
-      <c r="Q3" s="177"/>
-      <c r="R3" s="177"/>
-      <c r="S3" s="178"/>
-      <c r="T3" s="178"/>
-      <c r="U3" s="178"/>
-      <c r="V3" s="178"/>
-      <c r="W3" s="179"/>
-      <c r="X3" s="179"/>
-      <c r="Y3" s="129"/>
-      <c r="Z3" s="129"/>
-      <c r="AA3" s="129"/>
-      <c r="AB3" s="145"/>
-      <c r="AC3" s="145"/>
-      <c r="AD3" s="145"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="169"/>
+      <c r="Q3" s="169"/>
+      <c r="R3" s="169"/>
+      <c r="S3" s="170"/>
+      <c r="T3" s="170"/>
+      <c r="U3" s="170"/>
+      <c r="V3" s="170"/>
+      <c r="W3" s="171"/>
+      <c r="X3" s="171"/>
+      <c r="Y3" s="126"/>
+      <c r="Z3" s="126"/>
+      <c r="AA3" s="126"/>
+      <c r="AB3" s="262"/>
+      <c r="AC3" s="262"/>
+      <c r="AD3" s="262"/>
     </row>
     <row r="4" spans="1:30" ht="23.1" customHeight="1">
-      <c r="A4" s="103"/>
-      <c r="B4" s="104"/>
-      <c r="C4" s="63">
+      <c r="A4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="62">
         <v>2</v>
       </c>
-      <c r="D4" s="73"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="170"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="170"/>
-      <c r="K4" s="170"/>
-      <c r="L4" s="170"/>
-      <c r="M4" s="170"/>
-      <c r="N4" s="171"/>
-      <c r="O4" s="171"/>
-      <c r="P4" s="171"/>
-      <c r="Q4" s="171"/>
-      <c r="R4" s="171"/>
-      <c r="S4" s="172"/>
-      <c r="T4" s="172"/>
-      <c r="U4" s="172"/>
-      <c r="V4" s="172"/>
-      <c r="W4" s="173"/>
-      <c r="X4" s="173"/>
-      <c r="Y4" s="174"/>
-      <c r="Z4" s="174"/>
-      <c r="AA4" s="174"/>
-      <c r="AB4" s="131"/>
-      <c r="AC4" s="131"/>
-      <c r="AD4" s="131"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="163"/>
+      <c r="L4" s="163"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="164"/>
+      <c r="O4" s="164"/>
+      <c r="P4" s="164"/>
+      <c r="Q4" s="164"/>
+      <c r="R4" s="164"/>
+      <c r="S4" s="165"/>
+      <c r="T4" s="165"/>
+      <c r="U4" s="165"/>
+      <c r="V4" s="165"/>
+      <c r="W4" s="166"/>
+      <c r="X4" s="166"/>
+      <c r="Y4" s="167"/>
+      <c r="Z4" s="167"/>
+      <c r="AA4" s="167"/>
+      <c r="AB4" s="263"/>
+      <c r="AC4" s="263"/>
+      <c r="AD4" s="263"/>
     </row>
     <row r="5" spans="1:30" ht="23.1" customHeight="1">
-      <c r="A5" s="103"/>
-      <c r="B5" s="104"/>
-      <c r="C5" s="63">
+      <c r="A5" s="100"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="62">
         <v>3</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="170"/>
-      <c r="K5" s="170"/>
-      <c r="L5" s="170"/>
-      <c r="M5" s="170"/>
-      <c r="N5" s="171"/>
-      <c r="O5" s="171"/>
-      <c r="P5" s="171"/>
-      <c r="Q5" s="171"/>
-      <c r="R5" s="171"/>
-      <c r="S5" s="172"/>
-      <c r="T5" s="172"/>
-      <c r="U5" s="172"/>
-      <c r="V5" s="172"/>
-      <c r="W5" s="183"/>
-      <c r="X5" s="183"/>
-      <c r="Y5" s="174"/>
-      <c r="Z5" s="174"/>
-      <c r="AA5" s="174"/>
-      <c r="AB5" s="138"/>
-      <c r="AC5" s="138"/>
-      <c r="AD5" s="138"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="163"/>
+      <c r="K5" s="163"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="163"/>
+      <c r="N5" s="164"/>
+      <c r="O5" s="164"/>
+      <c r="P5" s="164"/>
+      <c r="Q5" s="164"/>
+      <c r="R5" s="164"/>
+      <c r="S5" s="165"/>
+      <c r="T5" s="165"/>
+      <c r="U5" s="165"/>
+      <c r="V5" s="165"/>
+      <c r="W5" s="173"/>
+      <c r="X5" s="173"/>
+      <c r="Y5" s="167"/>
+      <c r="Z5" s="167"/>
+      <c r="AA5" s="167"/>
+      <c r="AB5" s="264"/>
+      <c r="AC5" s="264"/>
+      <c r="AD5" s="264"/>
     </row>
     <row r="6" spans="1:30" ht="23.1" customHeight="1">
-      <c r="A6" s="103"/>
-      <c r="B6" s="104"/>
-      <c r="C6" s="63">
+      <c r="A6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="62">
         <v>4</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="170"/>
-      <c r="K6" s="170"/>
-      <c r="L6" s="170"/>
-      <c r="M6" s="170"/>
-      <c r="N6" s="171"/>
-      <c r="O6" s="171"/>
-      <c r="P6" s="171"/>
-      <c r="Q6" s="171"/>
-      <c r="R6" s="171"/>
-      <c r="S6" s="172"/>
-      <c r="T6" s="172"/>
-      <c r="U6" s="172"/>
-      <c r="V6" s="172"/>
-      <c r="W6" s="181"/>
-      <c r="X6" s="181"/>
-      <c r="Y6" s="174"/>
-      <c r="Z6" s="174"/>
-      <c r="AA6" s="174"/>
-      <c r="AB6" s="146"/>
-      <c r="AC6" s="146"/>
-      <c r="AD6" s="146"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="163"/>
+      <c r="K6" s="163"/>
+      <c r="L6" s="163"/>
+      <c r="M6" s="163"/>
+      <c r="N6" s="164"/>
+      <c r="O6" s="164"/>
+      <c r="P6" s="164"/>
+      <c r="Q6" s="164"/>
+      <c r="R6" s="164"/>
+      <c r="S6" s="165"/>
+      <c r="T6" s="165"/>
+      <c r="U6" s="165"/>
+      <c r="V6" s="165"/>
+      <c r="W6" s="172"/>
+      <c r="X6" s="172"/>
+      <c r="Y6" s="167"/>
+      <c r="Z6" s="167"/>
+      <c r="AA6" s="167"/>
+      <c r="AB6" s="265"/>
+      <c r="AC6" s="265"/>
+      <c r="AD6" s="265"/>
     </row>
     <row r="7" spans="1:30" ht="23.1" customHeight="1">
-      <c r="A7" s="103"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="63">
+      <c r="A7" s="100"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="62">
         <v>5</v>
       </c>
-      <c r="D7" s="73"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="170"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="170"/>
-      <c r="L7" s="170"/>
-      <c r="M7" s="170"/>
-      <c r="N7" s="171"/>
-      <c r="O7" s="171"/>
-      <c r="P7" s="171"/>
-      <c r="Q7" s="171"/>
-      <c r="R7" s="171"/>
-      <c r="S7" s="172"/>
-      <c r="T7" s="172"/>
-      <c r="U7" s="172"/>
-      <c r="V7" s="172"/>
-      <c r="W7" s="185"/>
-      <c r="X7" s="185"/>
-      <c r="Y7" s="174"/>
-      <c r="Z7" s="174"/>
-      <c r="AA7" s="174"/>
-      <c r="AB7" s="147"/>
-      <c r="AC7" s="147"/>
-      <c r="AD7" s="147"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="163"/>
+      <c r="N7" s="164"/>
+      <c r="O7" s="164"/>
+      <c r="P7" s="164"/>
+      <c r="Q7" s="164"/>
+      <c r="R7" s="164"/>
+      <c r="S7" s="165"/>
+      <c r="T7" s="165"/>
+      <c r="U7" s="165"/>
+      <c r="V7" s="165"/>
+      <c r="W7" s="174"/>
+      <c r="X7" s="174"/>
+      <c r="Y7" s="167"/>
+      <c r="Z7" s="167"/>
+      <c r="AA7" s="167"/>
+      <c r="AB7" s="266"/>
+      <c r="AC7" s="266"/>
+      <c r="AD7" s="266"/>
     </row>
     <row r="8" spans="1:30" ht="23.1" customHeight="1">
-      <c r="A8" s="103"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="63">
+      <c r="A8" s="100"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="62">
         <v>6</v>
       </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="170"/>
-      <c r="I8" s="170"/>
-      <c r="J8" s="170"/>
-      <c r="K8" s="170"/>
-      <c r="L8" s="170"/>
-      <c r="M8" s="170"/>
-      <c r="N8" s="171"/>
-      <c r="O8" s="171"/>
-      <c r="P8" s="171"/>
-      <c r="Q8" s="171"/>
-      <c r="R8" s="171"/>
-      <c r="S8" s="172"/>
-      <c r="T8" s="172"/>
-      <c r="U8" s="172"/>
-      <c r="V8" s="172"/>
-      <c r="W8" s="183"/>
-      <c r="X8" s="183"/>
-      <c r="Y8" s="174"/>
-      <c r="Z8" s="174"/>
-      <c r="AA8" s="174"/>
-      <c r="AB8" s="138"/>
-      <c r="AC8" s="138"/>
-      <c r="AD8" s="138"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="163"/>
+      <c r="L8" s="163"/>
+      <c r="M8" s="163"/>
+      <c r="N8" s="164"/>
+      <c r="O8" s="164"/>
+      <c r="P8" s="164"/>
+      <c r="Q8" s="164"/>
+      <c r="R8" s="164"/>
+      <c r="S8" s="165"/>
+      <c r="T8" s="165"/>
+      <c r="U8" s="165"/>
+      <c r="V8" s="165"/>
+      <c r="W8" s="173"/>
+      <c r="X8" s="173"/>
+      <c r="Y8" s="167"/>
+      <c r="Z8" s="167"/>
+      <c r="AA8" s="167"/>
+      <c r="AB8" s="264"/>
+      <c r="AC8" s="264"/>
+      <c r="AD8" s="264"/>
     </row>
     <row r="9" spans="1:30" ht="23.1" customHeight="1">
-      <c r="A9" s="103"/>
-      <c r="B9" s="104"/>
-      <c r="C9" s="63">
+      <c r="A9" s="100"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="62">
         <v>7</v>
       </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="170"/>
-      <c r="H9" s="170"/>
-      <c r="I9" s="170"/>
-      <c r="J9" s="170"/>
-      <c r="K9" s="170"/>
-      <c r="L9" s="170"/>
-      <c r="M9" s="170"/>
-      <c r="N9" s="171"/>
-      <c r="O9" s="171"/>
-      <c r="P9" s="171"/>
-      <c r="Q9" s="171"/>
-      <c r="R9" s="171"/>
-      <c r="S9" s="172"/>
-      <c r="T9" s="172"/>
-      <c r="U9" s="172"/>
-      <c r="V9" s="172"/>
-      <c r="W9" s="183"/>
-      <c r="X9" s="183"/>
-      <c r="Y9" s="174"/>
-      <c r="Z9" s="174"/>
-      <c r="AA9" s="174"/>
-      <c r="AB9" s="138"/>
-      <c r="AC9" s="138"/>
-      <c r="AD9" s="138"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="163"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="163"/>
+      <c r="J9" s="163"/>
+      <c r="K9" s="163"/>
+      <c r="L9" s="163"/>
+      <c r="M9" s="163"/>
+      <c r="N9" s="164"/>
+      <c r="O9" s="164"/>
+      <c r="P9" s="164"/>
+      <c r="Q9" s="164"/>
+      <c r="R9" s="164"/>
+      <c r="S9" s="165"/>
+      <c r="T9" s="165"/>
+      <c r="U9" s="165"/>
+      <c r="V9" s="165"/>
+      <c r="W9" s="173"/>
+      <c r="X9" s="173"/>
+      <c r="Y9" s="167"/>
+      <c r="Z9" s="167"/>
+      <c r="AA9" s="167"/>
+      <c r="AB9" s="264"/>
+      <c r="AC9" s="264"/>
+      <c r="AD9" s="264"/>
     </row>
     <row r="10" spans="1:30" ht="23.1" customHeight="1">
-      <c r="A10" s="103"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="63">
+      <c r="A10" s="100"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="62">
         <v>8</v>
       </c>
-      <c r="D10" s="72"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="170"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="170"/>
-      <c r="K10" s="170"/>
-      <c r="L10" s="170"/>
-      <c r="M10" s="170"/>
-      <c r="N10" s="171"/>
-      <c r="O10" s="171"/>
-      <c r="P10" s="171"/>
-      <c r="Q10" s="171"/>
-      <c r="R10" s="171"/>
-      <c r="S10" s="172"/>
-      <c r="T10" s="172"/>
-      <c r="U10" s="172"/>
-      <c r="V10" s="172"/>
-      <c r="W10" s="173"/>
-      <c r="X10" s="173"/>
-      <c r="Y10" s="174"/>
-      <c r="Z10" s="174"/>
-      <c r="AA10" s="174"/>
-      <c r="AB10" s="131"/>
-      <c r="AC10" s="131"/>
-      <c r="AD10" s="131"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="163"/>
+      <c r="L10" s="163"/>
+      <c r="M10" s="163"/>
+      <c r="N10" s="164"/>
+      <c r="O10" s="164"/>
+      <c r="P10" s="164"/>
+      <c r="Q10" s="164"/>
+      <c r="R10" s="164"/>
+      <c r="S10" s="165"/>
+      <c r="T10" s="165"/>
+      <c r="U10" s="165"/>
+      <c r="V10" s="165"/>
+      <c r="W10" s="166"/>
+      <c r="X10" s="166"/>
+      <c r="Y10" s="167"/>
+      <c r="Z10" s="167"/>
+      <c r="AA10" s="167"/>
+      <c r="AB10" s="263"/>
+      <c r="AC10" s="263"/>
+      <c r="AD10" s="263"/>
     </row>
     <row r="11" spans="1:30" ht="23.1" customHeight="1">
-      <c r="A11" s="103"/>
-      <c r="B11" s="104"/>
-      <c r="C11" s="63">
+      <c r="A11" s="100"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="62">
         <v>9</v>
       </c>
-      <c r="D11" s="73"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="170"/>
-      <c r="I11" s="170"/>
-      <c r="J11" s="170"/>
-      <c r="K11" s="170"/>
-      <c r="L11" s="170"/>
-      <c r="M11" s="170"/>
-      <c r="N11" s="171"/>
-      <c r="O11" s="171"/>
-      <c r="P11" s="171"/>
-      <c r="Q11" s="171"/>
-      <c r="R11" s="171"/>
-      <c r="S11" s="172"/>
-      <c r="T11" s="172"/>
-      <c r="U11" s="172"/>
-      <c r="V11" s="172"/>
-      <c r="W11" s="173"/>
-      <c r="X11" s="173"/>
-      <c r="Y11" s="174"/>
-      <c r="Z11" s="174"/>
-      <c r="AA11" s="174"/>
-      <c r="AB11" s="131"/>
-      <c r="AC11" s="131"/>
-      <c r="AD11" s="131"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="163"/>
+      <c r="K11" s="163"/>
+      <c r="L11" s="163"/>
+      <c r="M11" s="163"/>
+      <c r="N11" s="164"/>
+      <c r="O11" s="164"/>
+      <c r="P11" s="164"/>
+      <c r="Q11" s="164"/>
+      <c r="R11" s="164"/>
+      <c r="S11" s="165"/>
+      <c r="T11" s="165"/>
+      <c r="U11" s="165"/>
+      <c r="V11" s="165"/>
+      <c r="W11" s="166"/>
+      <c r="X11" s="166"/>
+      <c r="Y11" s="167"/>
+      <c r="Z11" s="167"/>
+      <c r="AA11" s="167"/>
+      <c r="AB11" s="263"/>
+      <c r="AC11" s="263"/>
+      <c r="AD11" s="263"/>
     </row>
     <row r="12" spans="1:30" ht="23.1" customHeight="1">
-      <c r="A12" s="103"/>
-      <c r="B12" s="104"/>
-      <c r="C12" s="63">
+      <c r="A12" s="100"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="62">
         <v>10</v>
       </c>
-      <c r="D12" s="73"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="170"/>
-      <c r="H12" s="170"/>
-      <c r="I12" s="170"/>
-      <c r="J12" s="170"/>
-      <c r="K12" s="170"/>
-      <c r="L12" s="170"/>
-      <c r="M12" s="170"/>
-      <c r="N12" s="171"/>
-      <c r="O12" s="171"/>
-      <c r="P12" s="171"/>
-      <c r="Q12" s="171"/>
-      <c r="R12" s="171"/>
-      <c r="S12" s="172"/>
-      <c r="T12" s="172"/>
-      <c r="U12" s="172"/>
-      <c r="V12" s="172"/>
-      <c r="W12" s="187"/>
-      <c r="X12" s="187"/>
-      <c r="Y12" s="174"/>
-      <c r="Z12" s="174"/>
-      <c r="AA12" s="174"/>
-      <c r="AB12" s="83"/>
-      <c r="AC12" s="83"/>
-      <c r="AD12" s="83"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="163"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="163"/>
+      <c r="L12" s="163"/>
+      <c r="M12" s="163"/>
+      <c r="N12" s="164"/>
+      <c r="O12" s="164"/>
+      <c r="P12" s="164"/>
+      <c r="Q12" s="164"/>
+      <c r="R12" s="164"/>
+      <c r="S12" s="165"/>
+      <c r="T12" s="165"/>
+      <c r="U12" s="165"/>
+      <c r="V12" s="165"/>
+      <c r="W12" s="175"/>
+      <c r="X12" s="175"/>
+      <c r="Y12" s="167"/>
+      <c r="Z12" s="167"/>
+      <c r="AA12" s="167"/>
+      <c r="AB12" s="111"/>
+      <c r="AC12" s="111"/>
+      <c r="AD12" s="111"/>
     </row>
     <row r="13" spans="1:30" ht="23.1" customHeight="1">
-      <c r="A13" s="103"/>
-      <c r="B13" s="104"/>
-      <c r="C13" s="63">
+      <c r="A13" s="100"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="62">
         <v>11</v>
       </c>
-      <c r="D13" s="73"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="170"/>
-      <c r="H13" s="170"/>
-      <c r="I13" s="170"/>
-      <c r="J13" s="170"/>
-      <c r="K13" s="170"/>
-      <c r="L13" s="170"/>
-      <c r="M13" s="170"/>
-      <c r="N13" s="171"/>
-      <c r="O13" s="171"/>
-      <c r="P13" s="171"/>
-      <c r="Q13" s="171"/>
-      <c r="R13" s="171"/>
-      <c r="S13" s="172"/>
-      <c r="T13" s="172"/>
-      <c r="U13" s="172"/>
-      <c r="V13" s="172"/>
-      <c r="W13" s="187"/>
-      <c r="X13" s="187"/>
-      <c r="Y13" s="174"/>
-      <c r="Z13" s="174"/>
-      <c r="AA13" s="174"/>
-      <c r="AB13" s="83"/>
-      <c r="AC13" s="83"/>
-      <c r="AD13" s="83"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="163"/>
+      <c r="H13" s="163"/>
+      <c r="I13" s="163"/>
+      <c r="J13" s="163"/>
+      <c r="K13" s="163"/>
+      <c r="L13" s="163"/>
+      <c r="M13" s="163"/>
+      <c r="N13" s="164"/>
+      <c r="O13" s="164"/>
+      <c r="P13" s="164"/>
+      <c r="Q13" s="164"/>
+      <c r="R13" s="164"/>
+      <c r="S13" s="165"/>
+      <c r="T13" s="165"/>
+      <c r="U13" s="165"/>
+      <c r="V13" s="165"/>
+      <c r="W13" s="175"/>
+      <c r="X13" s="175"/>
+      <c r="Y13" s="167"/>
+      <c r="Z13" s="167"/>
+      <c r="AA13" s="167"/>
+      <c r="AB13" s="111"/>
+      <c r="AC13" s="111"/>
+      <c r="AD13" s="111"/>
     </row>
     <row r="14" spans="1:30" ht="23.1" customHeight="1">
-      <c r="A14" s="103"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="63">
+      <c r="A14" s="100"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="62">
         <v>12</v>
       </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="170"/>
-      <c r="H14" s="170"/>
-      <c r="I14" s="170"/>
-      <c r="J14" s="170"/>
-      <c r="K14" s="170"/>
-      <c r="L14" s="170"/>
-      <c r="M14" s="170"/>
-      <c r="N14" s="171"/>
-      <c r="O14" s="171"/>
-      <c r="P14" s="171"/>
-      <c r="Q14" s="171"/>
-      <c r="R14" s="171"/>
-      <c r="S14" s="172"/>
-      <c r="T14" s="172"/>
-      <c r="U14" s="172"/>
-      <c r="V14" s="172"/>
-      <c r="W14" s="188"/>
-      <c r="X14" s="188"/>
-      <c r="Y14" s="189"/>
-      <c r="Z14" s="189"/>
-      <c r="AA14" s="189"/>
-      <c r="AB14" s="83"/>
-      <c r="AC14" s="83"/>
-      <c r="AD14" s="83"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="163"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="163"/>
+      <c r="K14" s="163"/>
+      <c r="L14" s="163"/>
+      <c r="M14" s="163"/>
+      <c r="N14" s="164"/>
+      <c r="O14" s="164"/>
+      <c r="P14" s="164"/>
+      <c r="Q14" s="164"/>
+      <c r="R14" s="164"/>
+      <c r="S14" s="165"/>
+      <c r="T14" s="165"/>
+      <c r="U14" s="165"/>
+      <c r="V14" s="165"/>
+      <c r="W14" s="176"/>
+      <c r="X14" s="176"/>
+      <c r="Y14" s="177"/>
+      <c r="Z14" s="177"/>
+      <c r="AA14" s="177"/>
+      <c r="AB14" s="111"/>
+      <c r="AC14" s="111"/>
+      <c r="AD14" s="111"/>
     </row>
     <row r="15" spans="1:30" ht="23.1" customHeight="1">
-      <c r="A15" s="103"/>
-      <c r="B15" s="104"/>
-      <c r="C15" s="63">
+      <c r="A15" s="100"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="62">
         <v>13</v>
       </c>
-      <c r="D15" s="73"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="170"/>
-      <c r="H15" s="170"/>
-      <c r="I15" s="170"/>
-      <c r="J15" s="170"/>
-      <c r="K15" s="170"/>
-      <c r="L15" s="170"/>
-      <c r="M15" s="170"/>
-      <c r="N15" s="171"/>
-      <c r="O15" s="171"/>
-      <c r="P15" s="171"/>
-      <c r="Q15" s="171"/>
-      <c r="R15" s="171"/>
-      <c r="S15" s="172"/>
-      <c r="T15" s="172"/>
-      <c r="U15" s="172"/>
-      <c r="V15" s="172"/>
-      <c r="W15" s="188"/>
-      <c r="X15" s="188"/>
-      <c r="Y15" s="189"/>
-      <c r="Z15" s="189"/>
-      <c r="AA15" s="189"/>
-      <c r="AB15" s="83"/>
-      <c r="AC15" s="83"/>
-      <c r="AD15" s="83"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="163"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="163"/>
+      <c r="K15" s="163"/>
+      <c r="L15" s="163"/>
+      <c r="M15" s="163"/>
+      <c r="N15" s="164"/>
+      <c r="O15" s="164"/>
+      <c r="P15" s="164"/>
+      <c r="Q15" s="164"/>
+      <c r="R15" s="164"/>
+      <c r="S15" s="165"/>
+      <c r="T15" s="165"/>
+      <c r="U15" s="165"/>
+      <c r="V15" s="165"/>
+      <c r="W15" s="176"/>
+      <c r="X15" s="176"/>
+      <c r="Y15" s="177"/>
+      <c r="Z15" s="177"/>
+      <c r="AA15" s="177"/>
+      <c r="AB15" s="111"/>
+      <c r="AC15" s="111"/>
+      <c r="AD15" s="111"/>
     </row>
     <row r="16" spans="1:30" ht="11.45" customHeight="1" thickBot="1">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="190">
+      <c r="C16" s="178">
         <v>14</v>
       </c>
-      <c r="D16" s="191"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="191"/>
-      <c r="G16" s="170"/>
-      <c r="H16" s="170"/>
-      <c r="I16" s="170"/>
-      <c r="J16" s="170"/>
-      <c r="K16" s="170"/>
-      <c r="L16" s="170"/>
-      <c r="M16" s="170"/>
-      <c r="N16" s="170"/>
-      <c r="O16" s="170"/>
-      <c r="P16" s="170"/>
-      <c r="Q16" s="170"/>
-      <c r="R16" s="170"/>
-      <c r="S16" s="188"/>
-      <c r="T16" s="188"/>
-      <c r="U16" s="188"/>
-      <c r="V16" s="188"/>
-      <c r="W16" s="188"/>
-      <c r="X16" s="188"/>
-      <c r="Y16" s="189"/>
-      <c r="Z16" s="189"/>
-      <c r="AA16" s="189"/>
-      <c r="AB16" s="83"/>
-      <c r="AC16" s="83"/>
-      <c r="AD16" s="83"/>
+      <c r="D16" s="179"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="179"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="163"/>
+      <c r="K16" s="163"/>
+      <c r="L16" s="163"/>
+      <c r="M16" s="163"/>
+      <c r="N16" s="163"/>
+      <c r="O16" s="163"/>
+      <c r="P16" s="163"/>
+      <c r="Q16" s="163"/>
+      <c r="R16" s="163"/>
+      <c r="S16" s="176"/>
+      <c r="T16" s="176"/>
+      <c r="U16" s="176"/>
+      <c r="V16" s="176"/>
+      <c r="W16" s="176"/>
+      <c r="X16" s="176"/>
+      <c r="Y16" s="177"/>
+      <c r="Z16" s="177"/>
+      <c r="AA16" s="177"/>
+      <c r="AB16" s="111"/>
+      <c r="AC16" s="111"/>
+      <c r="AD16" s="111"/>
     </row>
     <row r="17" spans="1:30" ht="11.45" customHeight="1" thickBot="1">
-      <c r="A17" s="112" t="s">
+      <c r="A17" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="112"/>
-      <c r="C17" s="190"/>
-      <c r="D17" s="191"/>
-      <c r="E17" s="170"/>
-      <c r="F17" s="191"/>
-      <c r="G17" s="170"/>
-      <c r="H17" s="170"/>
-      <c r="I17" s="170"/>
-      <c r="J17" s="170"/>
-      <c r="K17" s="170"/>
-      <c r="L17" s="170"/>
-      <c r="M17" s="170"/>
-      <c r="N17" s="170"/>
-      <c r="O17" s="170"/>
-      <c r="P17" s="170"/>
-      <c r="Q17" s="170"/>
-      <c r="R17" s="170"/>
-      <c r="S17" s="188"/>
-      <c r="T17" s="188"/>
-      <c r="U17" s="188"/>
-      <c r="V17" s="188"/>
-      <c r="W17" s="188"/>
-      <c r="X17" s="188"/>
-      <c r="Y17" s="189"/>
-      <c r="Z17" s="189"/>
-      <c r="AA17" s="189"/>
-      <c r="AB17" s="83"/>
-      <c r="AC17" s="83"/>
-      <c r="AD17" s="83"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="178"/>
+      <c r="D17" s="179"/>
+      <c r="E17" s="163"/>
+      <c r="F17" s="179"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="163"/>
+      <c r="L17" s="163"/>
+      <c r="M17" s="163"/>
+      <c r="N17" s="163"/>
+      <c r="O17" s="163"/>
+      <c r="P17" s="163"/>
+      <c r="Q17" s="163"/>
+      <c r="R17" s="163"/>
+      <c r="S17" s="176"/>
+      <c r="T17" s="176"/>
+      <c r="U17" s="176"/>
+      <c r="V17" s="176"/>
+      <c r="W17" s="176"/>
+      <c r="X17" s="176"/>
+      <c r="Y17" s="177"/>
+      <c r="Z17" s="177"/>
+      <c r="AA17" s="177"/>
+      <c r="AB17" s="111"/>
+      <c r="AC17" s="111"/>
+      <c r="AD17" s="111"/>
     </row>
     <row r="18" spans="1:30" ht="23.1" customHeight="1" thickBot="1">
-      <c r="A18" s="112"/>
-      <c r="B18" s="112"/>
-      <c r="C18" s="63">
+      <c r="A18" s="109"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="62">
         <v>15</v>
       </c>
-      <c r="D18" s="73"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="170"/>
-      <c r="K18" s="170"/>
-      <c r="L18" s="170"/>
-      <c r="M18" s="170"/>
-      <c r="N18" s="171"/>
-      <c r="O18" s="171"/>
-      <c r="P18" s="171"/>
-      <c r="Q18" s="171"/>
-      <c r="R18" s="171"/>
-      <c r="S18" s="172"/>
-      <c r="T18" s="172"/>
-      <c r="U18" s="172"/>
-      <c r="V18" s="172"/>
-      <c r="W18" s="188"/>
-      <c r="X18" s="188"/>
-      <c r="Y18" s="189"/>
-      <c r="Z18" s="189"/>
-      <c r="AA18" s="189"/>
-      <c r="AB18" s="83"/>
-      <c r="AC18" s="83"/>
-      <c r="AD18" s="83"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="163"/>
+      <c r="L18" s="163"/>
+      <c r="M18" s="163"/>
+      <c r="N18" s="164"/>
+      <c r="O18" s="164"/>
+      <c r="P18" s="164"/>
+      <c r="Q18" s="164"/>
+      <c r="R18" s="164"/>
+      <c r="S18" s="165"/>
+      <c r="T18" s="165"/>
+      <c r="U18" s="165"/>
+      <c r="V18" s="165"/>
+      <c r="W18" s="176"/>
+      <c r="X18" s="176"/>
+      <c r="Y18" s="177"/>
+      <c r="Z18" s="177"/>
+      <c r="AA18" s="177"/>
+      <c r="AB18" s="111"/>
+      <c r="AC18" s="111"/>
+      <c r="AD18" s="111"/>
     </row>
     <row r="19" spans="1:30" ht="23.1" customHeight="1" thickBot="1">
-      <c r="A19" s="112"/>
-      <c r="B19" s="112"/>
-      <c r="C19" s="63">
+      <c r="A19" s="109"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="62">
         <v>16</v>
       </c>
-      <c r="D19" s="73"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="170"/>
-      <c r="I19" s="170"/>
-      <c r="J19" s="170"/>
-      <c r="K19" s="170"/>
-      <c r="L19" s="170"/>
-      <c r="M19" s="170"/>
-      <c r="N19" s="171"/>
-      <c r="O19" s="171"/>
-      <c r="P19" s="171"/>
-      <c r="Q19" s="171"/>
-      <c r="R19" s="171"/>
-      <c r="S19" s="172"/>
-      <c r="T19" s="172"/>
-      <c r="U19" s="172"/>
-      <c r="V19" s="172"/>
-      <c r="W19" s="188"/>
-      <c r="X19" s="188"/>
-      <c r="Y19" s="189"/>
-      <c r="Z19" s="189"/>
-      <c r="AA19" s="189"/>
-      <c r="AB19" s="83"/>
-      <c r="AC19" s="83"/>
-      <c r="AD19" s="83"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="163"/>
+      <c r="H19" s="163"/>
+      <c r="I19" s="163"/>
+      <c r="J19" s="163"/>
+      <c r="K19" s="163"/>
+      <c r="L19" s="163"/>
+      <c r="M19" s="163"/>
+      <c r="N19" s="164"/>
+      <c r="O19" s="164"/>
+      <c r="P19" s="164"/>
+      <c r="Q19" s="164"/>
+      <c r="R19" s="164"/>
+      <c r="S19" s="165"/>
+      <c r="T19" s="165"/>
+      <c r="U19" s="165"/>
+      <c r="V19" s="165"/>
+      <c r="W19" s="176"/>
+      <c r="X19" s="176"/>
+      <c r="Y19" s="177"/>
+      <c r="Z19" s="177"/>
+      <c r="AA19" s="177"/>
+      <c r="AB19" s="111"/>
+      <c r="AC19" s="111"/>
+      <c r="AD19" s="111"/>
     </row>
     <row r="20" spans="1:30" ht="23.1" customHeight="1" thickBot="1">
-      <c r="A20" s="112"/>
-      <c r="B20" s="112"/>
-      <c r="C20" s="63">
+      <c r="A20" s="109"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="62">
         <v>17</v>
       </c>
-      <c r="D20" s="73"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="170"/>
-      <c r="H20" s="170"/>
-      <c r="I20" s="170"/>
-      <c r="J20" s="170"/>
-      <c r="K20" s="170"/>
-      <c r="L20" s="170"/>
-      <c r="M20" s="170"/>
-      <c r="N20" s="192"/>
-      <c r="O20" s="193"/>
-      <c r="P20" s="193"/>
-      <c r="Q20" s="193"/>
-      <c r="R20" s="194"/>
-      <c r="S20" s="172"/>
-      <c r="T20" s="172"/>
-      <c r="U20" s="172"/>
-      <c r="V20" s="172"/>
-      <c r="W20" s="187"/>
-      <c r="X20" s="187"/>
-      <c r="Y20" s="189"/>
-      <c r="Z20" s="189"/>
-      <c r="AA20" s="189"/>
-      <c r="AB20" s="83"/>
-      <c r="AC20" s="83"/>
-      <c r="AD20" s="83"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="163"/>
+      <c r="H20" s="163"/>
+      <c r="I20" s="163"/>
+      <c r="J20" s="163"/>
+      <c r="K20" s="163"/>
+      <c r="L20" s="163"/>
+      <c r="M20" s="163"/>
+      <c r="N20" s="180"/>
+      <c r="O20" s="181"/>
+      <c r="P20" s="181"/>
+      <c r="Q20" s="181"/>
+      <c r="R20" s="182"/>
+      <c r="S20" s="165"/>
+      <c r="T20" s="165"/>
+      <c r="U20" s="165"/>
+      <c r="V20" s="165"/>
+      <c r="W20" s="175"/>
+      <c r="X20" s="175"/>
+      <c r="Y20" s="177"/>
+      <c r="Z20" s="177"/>
+      <c r="AA20" s="177"/>
+      <c r="AB20" s="111"/>
+      <c r="AC20" s="111"/>
+      <c r="AD20" s="111"/>
     </row>
     <row r="21" spans="1:30" ht="23.1" customHeight="1" thickBot="1">
-      <c r="A21" s="112"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="63">
+      <c r="A21" s="109"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="62">
         <v>18</v>
       </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="170"/>
-      <c r="H21" s="170"/>
-      <c r="I21" s="170"/>
-      <c r="J21" s="170"/>
-      <c r="K21" s="170"/>
-      <c r="L21" s="170"/>
-      <c r="M21" s="170"/>
-      <c r="N21" s="192"/>
-      <c r="O21" s="193"/>
-      <c r="P21" s="193"/>
-      <c r="Q21" s="193"/>
-      <c r="R21" s="194"/>
-      <c r="S21" s="172"/>
-      <c r="T21" s="172"/>
-      <c r="U21" s="172"/>
-      <c r="V21" s="172"/>
-      <c r="W21" s="188"/>
-      <c r="X21" s="188"/>
-      <c r="Y21" s="189"/>
-      <c r="Z21" s="189"/>
-      <c r="AA21" s="189"/>
-      <c r="AB21" s="83"/>
-      <c r="AC21" s="83"/>
-      <c r="AD21" s="83"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="163"/>
+      <c r="H21" s="163"/>
+      <c r="I21" s="163"/>
+      <c r="J21" s="163"/>
+      <c r="K21" s="163"/>
+      <c r="L21" s="163"/>
+      <c r="M21" s="163"/>
+      <c r="N21" s="180"/>
+      <c r="O21" s="181"/>
+      <c r="P21" s="181"/>
+      <c r="Q21" s="181"/>
+      <c r="R21" s="182"/>
+      <c r="S21" s="165"/>
+      <c r="T21" s="165"/>
+      <c r="U21" s="165"/>
+      <c r="V21" s="165"/>
+      <c r="W21" s="176"/>
+      <c r="X21" s="176"/>
+      <c r="Y21" s="177"/>
+      <c r="Z21" s="177"/>
+      <c r="AA21" s="177"/>
+      <c r="AB21" s="111"/>
+      <c r="AC21" s="111"/>
+      <c r="AD21" s="111"/>
     </row>
     <row r="22" spans="1:30" ht="23.1" customHeight="1" thickBot="1">
-      <c r="A22" s="112" t="s">
+      <c r="A22" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="112"/>
-      <c r="C22" s="63">
+      <c r="B22" s="109"/>
+      <c r="C22" s="62">
         <v>19</v>
       </c>
-      <c r="D22" s="73"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="170"/>
-      <c r="H22" s="170"/>
-      <c r="I22" s="170"/>
-      <c r="J22" s="170"/>
-      <c r="K22" s="170"/>
-      <c r="L22" s="170"/>
-      <c r="M22" s="170"/>
-      <c r="N22" s="192"/>
-      <c r="O22" s="193"/>
-      <c r="P22" s="193"/>
-      <c r="Q22" s="193"/>
-      <c r="R22" s="194"/>
-      <c r="S22" s="172"/>
-      <c r="T22" s="172"/>
-      <c r="U22" s="172"/>
-      <c r="V22" s="172"/>
-      <c r="W22" s="195"/>
-      <c r="X22" s="195"/>
-      <c r="Y22" s="189"/>
-      <c r="Z22" s="189"/>
-      <c r="AA22" s="189"/>
-      <c r="AB22" s="83"/>
-      <c r="AC22" s="83"/>
-      <c r="AD22" s="83"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="163"/>
+      <c r="H22" s="163"/>
+      <c r="I22" s="163"/>
+      <c r="J22" s="163"/>
+      <c r="K22" s="163"/>
+      <c r="L22" s="163"/>
+      <c r="M22" s="163"/>
+      <c r="N22" s="180"/>
+      <c r="O22" s="181"/>
+      <c r="P22" s="181"/>
+      <c r="Q22" s="181"/>
+      <c r="R22" s="182"/>
+      <c r="S22" s="165"/>
+      <c r="T22" s="165"/>
+      <c r="U22" s="165"/>
+      <c r="V22" s="165"/>
+      <c r="W22" s="175"/>
+      <c r="X22" s="175"/>
+      <c r="Y22" s="177"/>
+      <c r="Z22" s="177"/>
+      <c r="AA22" s="177"/>
+      <c r="AB22" s="111"/>
+      <c r="AC22" s="111"/>
+      <c r="AD22" s="111"/>
     </row>
     <row r="23" spans="1:30" ht="23.1" customHeight="1" thickBot="1">
-      <c r="A23" s="112"/>
-      <c r="B23" s="112"/>
-      <c r="C23" s="63">
+      <c r="A23" s="109"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="62">
         <v>20</v>
       </c>
-      <c r="D23" s="73"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="170"/>
-      <c r="H23" s="170"/>
-      <c r="I23" s="170"/>
-      <c r="J23" s="170"/>
-      <c r="K23" s="170"/>
-      <c r="L23" s="170"/>
-      <c r="M23" s="170"/>
-      <c r="N23" s="192"/>
-      <c r="O23" s="193"/>
-      <c r="P23" s="193"/>
-      <c r="Q23" s="193"/>
-      <c r="R23" s="194"/>
-      <c r="S23" s="172"/>
-      <c r="T23" s="172"/>
-      <c r="U23" s="172"/>
-      <c r="V23" s="172"/>
-      <c r="W23" s="188"/>
-      <c r="X23" s="188"/>
-      <c r="Y23" s="189"/>
-      <c r="Z23" s="189"/>
-      <c r="AA23" s="189"/>
-      <c r="AB23" s="83"/>
-      <c r="AC23" s="83"/>
-      <c r="AD23" s="83"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="163"/>
+      <c r="H23" s="163"/>
+      <c r="I23" s="163"/>
+      <c r="J23" s="163"/>
+      <c r="K23" s="163"/>
+      <c r="L23" s="163"/>
+      <c r="M23" s="163"/>
+      <c r="N23" s="180"/>
+      <c r="O23" s="181"/>
+      <c r="P23" s="181"/>
+      <c r="Q23" s="181"/>
+      <c r="R23" s="182"/>
+      <c r="S23" s="165"/>
+      <c r="T23" s="165"/>
+      <c r="U23" s="165"/>
+      <c r="V23" s="165"/>
+      <c r="W23" s="176"/>
+      <c r="X23" s="176"/>
+      <c r="Y23" s="177"/>
+      <c r="Z23" s="177"/>
+      <c r="AA23" s="177"/>
+      <c r="AB23" s="111"/>
+      <c r="AC23" s="111"/>
+      <c r="AD23" s="111"/>
     </row>
     <row r="24" spans="1:30" ht="23.1" customHeight="1" thickBot="1">
-      <c r="A24" s="112"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="63">
+      <c r="A24" s="109"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="62">
         <v>21</v>
       </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="170"/>
-      <c r="H24" s="170"/>
-      <c r="I24" s="170"/>
-      <c r="J24" s="170"/>
-      <c r="K24" s="170"/>
-      <c r="L24" s="170"/>
-      <c r="M24" s="170"/>
-      <c r="N24" s="192"/>
-      <c r="O24" s="193"/>
-      <c r="P24" s="193"/>
-      <c r="Q24" s="193"/>
-      <c r="R24" s="194"/>
-      <c r="S24" s="172"/>
-      <c r="T24" s="172"/>
-      <c r="U24" s="172"/>
-      <c r="V24" s="172"/>
-      <c r="W24" s="188"/>
-      <c r="X24" s="188"/>
-      <c r="Y24" s="189"/>
-      <c r="Z24" s="189"/>
-      <c r="AA24" s="189"/>
-      <c r="AB24" s="83"/>
-      <c r="AC24" s="83"/>
-      <c r="AD24" s="83"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="163"/>
+      <c r="H24" s="163"/>
+      <c r="I24" s="163"/>
+      <c r="J24" s="163"/>
+      <c r="K24" s="163"/>
+      <c r="L24" s="163"/>
+      <c r="M24" s="163"/>
+      <c r="N24" s="180"/>
+      <c r="O24" s="181"/>
+      <c r="P24" s="181"/>
+      <c r="Q24" s="181"/>
+      <c r="R24" s="182"/>
+      <c r="S24" s="165"/>
+      <c r="T24" s="165"/>
+      <c r="U24" s="165"/>
+      <c r="V24" s="165"/>
+      <c r="W24" s="176"/>
+      <c r="X24" s="176"/>
+      <c r="Y24" s="177"/>
+      <c r="Z24" s="177"/>
+      <c r="AA24" s="177"/>
+      <c r="AB24" s="111"/>
+      <c r="AC24" s="111"/>
+      <c r="AD24" s="111"/>
     </row>
     <row r="25" spans="1:30" ht="23.1" customHeight="1" thickBot="1">
-      <c r="A25" s="151" t="s">
+      <c r="A25" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="112"/>
-      <c r="C25" s="63">
+      <c r="B25" s="109"/>
+      <c r="C25" s="62">
         <v>22</v>
       </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="170"/>
-      <c r="H25" s="170"/>
-      <c r="I25" s="170"/>
-      <c r="J25" s="170"/>
-      <c r="K25" s="170"/>
-      <c r="L25" s="170"/>
-      <c r="M25" s="170"/>
-      <c r="N25" s="192"/>
-      <c r="O25" s="193"/>
-      <c r="P25" s="193"/>
-      <c r="Q25" s="193"/>
-      <c r="R25" s="194"/>
-      <c r="S25" s="172"/>
-      <c r="T25" s="172"/>
-      <c r="U25" s="172"/>
-      <c r="V25" s="172"/>
-      <c r="W25" s="188"/>
-      <c r="X25" s="188"/>
-      <c r="Y25" s="189"/>
-      <c r="Z25" s="189"/>
-      <c r="AA25" s="189"/>
-      <c r="AB25" s="83"/>
-      <c r="AC25" s="83"/>
-      <c r="AD25" s="83"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="163"/>
+      <c r="H25" s="163"/>
+      <c r="I25" s="163"/>
+      <c r="J25" s="163"/>
+      <c r="K25" s="163"/>
+      <c r="L25" s="163"/>
+      <c r="M25" s="163"/>
+      <c r="N25" s="180"/>
+      <c r="O25" s="181"/>
+      <c r="P25" s="181"/>
+      <c r="Q25" s="181"/>
+      <c r="R25" s="182"/>
+      <c r="S25" s="165"/>
+      <c r="T25" s="165"/>
+      <c r="U25" s="165"/>
+      <c r="V25" s="165"/>
+      <c r="W25" s="176"/>
+      <c r="X25" s="176"/>
+      <c r="Y25" s="177"/>
+      <c r="Z25" s="177"/>
+      <c r="AA25" s="177"/>
+      <c r="AB25" s="111"/>
+      <c r="AC25" s="111"/>
+      <c r="AD25" s="111"/>
     </row>
     <row r="26" spans="1:30" ht="23.1" customHeight="1" thickBot="1">
-      <c r="A26" s="151"/>
-      <c r="B26" s="112"/>
-      <c r="C26" s="63">
+      <c r="A26" s="143"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="62">
         <v>23</v>
       </c>
-      <c r="D26" s="73"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="170"/>
-      <c r="H26" s="170"/>
-      <c r="I26" s="170"/>
-      <c r="J26" s="170"/>
-      <c r="K26" s="170"/>
-      <c r="L26" s="170"/>
-      <c r="M26" s="170"/>
-      <c r="N26" s="192"/>
-      <c r="O26" s="193"/>
-      <c r="P26" s="193"/>
-      <c r="Q26" s="193"/>
-      <c r="R26" s="194"/>
-      <c r="S26" s="172"/>
-      <c r="T26" s="172"/>
-      <c r="U26" s="172"/>
-      <c r="V26" s="172"/>
-      <c r="W26" s="188"/>
-      <c r="X26" s="188"/>
-      <c r="Y26" s="189"/>
-      <c r="Z26" s="189"/>
-      <c r="AA26" s="189"/>
-      <c r="AB26" s="83"/>
-      <c r="AC26" s="83"/>
-      <c r="AD26" s="83"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="163"/>
+      <c r="H26" s="163"/>
+      <c r="I26" s="163"/>
+      <c r="J26" s="163"/>
+      <c r="K26" s="163"/>
+      <c r="L26" s="163"/>
+      <c r="M26" s="163"/>
+      <c r="N26" s="180"/>
+      <c r="O26" s="181"/>
+      <c r="P26" s="181"/>
+      <c r="Q26" s="181"/>
+      <c r="R26" s="182"/>
+      <c r="S26" s="165"/>
+      <c r="T26" s="165"/>
+      <c r="U26" s="165"/>
+      <c r="V26" s="165"/>
+      <c r="W26" s="176"/>
+      <c r="X26" s="176"/>
+      <c r="Y26" s="177"/>
+      <c r="Z26" s="177"/>
+      <c r="AA26" s="177"/>
+      <c r="AB26" s="111"/>
+      <c r="AC26" s="111"/>
+      <c r="AD26" s="111"/>
     </row>
     <row r="27" spans="1:30" ht="23.1" customHeight="1" thickBot="1">
-      <c r="A27" s="151"/>
-      <c r="B27" s="112"/>
-      <c r="C27" s="63">
+      <c r="A27" s="143"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="62">
         <v>24</v>
       </c>
-      <c r="D27" s="73"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="170"/>
-      <c r="H27" s="170"/>
-      <c r="I27" s="170"/>
-      <c r="J27" s="170"/>
-      <c r="K27" s="170"/>
-      <c r="L27" s="170"/>
-      <c r="M27" s="170"/>
-      <c r="N27" s="192"/>
-      <c r="O27" s="193"/>
-      <c r="P27" s="193"/>
-      <c r="Q27" s="193"/>
-      <c r="R27" s="194"/>
-      <c r="S27" s="172"/>
-      <c r="T27" s="172"/>
-      <c r="U27" s="172"/>
-      <c r="V27" s="172"/>
-      <c r="W27" s="188"/>
-      <c r="X27" s="188"/>
-      <c r="Y27" s="189"/>
-      <c r="Z27" s="189"/>
-      <c r="AA27" s="189"/>
-      <c r="AB27" s="83"/>
-      <c r="AC27" s="83"/>
-      <c r="AD27" s="83"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="163"/>
+      <c r="H27" s="163"/>
+      <c r="I27" s="163"/>
+      <c r="J27" s="163"/>
+      <c r="K27" s="163"/>
+      <c r="L27" s="163"/>
+      <c r="M27" s="163"/>
+      <c r="N27" s="180"/>
+      <c r="O27" s="181"/>
+      <c r="P27" s="181"/>
+      <c r="Q27" s="181"/>
+      <c r="R27" s="182"/>
+      <c r="S27" s="165"/>
+      <c r="T27" s="165"/>
+      <c r="U27" s="165"/>
+      <c r="V27" s="165"/>
+      <c r="W27" s="176"/>
+      <c r="X27" s="176"/>
+      <c r="Y27" s="177"/>
+      <c r="Z27" s="177"/>
+      <c r="AA27" s="177"/>
+      <c r="AB27" s="111"/>
+      <c r="AC27" s="111"/>
+      <c r="AD27" s="111"/>
     </row>
     <row r="28" spans="1:30" ht="22.9" customHeight="1">
-      <c r="A28" s="220" t="s">
+      <c r="A28" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="166"/>
-      <c r="C28" s="74">
+      <c r="B28" s="160"/>
+      <c r="C28" s="68">
         <v>25</v>
       </c>
-      <c r="D28" s="73"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="170"/>
-      <c r="H28" s="170"/>
-      <c r="I28" s="170"/>
-      <c r="J28" s="170"/>
-      <c r="K28" s="170"/>
-      <c r="L28" s="170"/>
-      <c r="M28" s="170"/>
-      <c r="N28" s="224"/>
-      <c r="O28" s="225"/>
-      <c r="P28" s="225"/>
-      <c r="Q28" s="225"/>
-      <c r="R28" s="226"/>
-      <c r="S28" s="188"/>
-      <c r="T28" s="188"/>
-      <c r="U28" s="188"/>
-      <c r="V28" s="188"/>
-      <c r="W28" s="188"/>
-      <c r="X28" s="188"/>
-      <c r="Y28" s="189"/>
-      <c r="Z28" s="189"/>
-      <c r="AA28" s="189"/>
-      <c r="AB28" s="279"/>
-      <c r="AC28" s="279"/>
-      <c r="AD28" s="279"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="163"/>
+      <c r="H28" s="163"/>
+      <c r="I28" s="163"/>
+      <c r="J28" s="163"/>
+      <c r="K28" s="163"/>
+      <c r="L28" s="163"/>
+      <c r="M28" s="163"/>
+      <c r="N28" s="211"/>
+      <c r="O28" s="212"/>
+      <c r="P28" s="212"/>
+      <c r="Q28" s="212"/>
+      <c r="R28" s="213"/>
+      <c r="S28" s="176"/>
+      <c r="T28" s="176"/>
+      <c r="U28" s="176"/>
+      <c r="V28" s="176"/>
+      <c r="W28" s="176"/>
+      <c r="X28" s="176"/>
+      <c r="Y28" s="177"/>
+      <c r="Z28" s="177"/>
+      <c r="AA28" s="177"/>
+      <c r="AB28" s="267"/>
+      <c r="AC28" s="267"/>
+      <c r="AD28" s="267"/>
     </row>
     <row r="29" spans="1:30" ht="22.9" customHeight="1">
-      <c r="A29" s="221"/>
-      <c r="B29" s="167"/>
-      <c r="C29" s="74">
+      <c r="A29" s="208"/>
+      <c r="B29" s="161"/>
+      <c r="C29" s="68">
         <v>26</v>
       </c>
-      <c r="D29" s="73"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="170"/>
-      <c r="H29" s="170"/>
-      <c r="I29" s="170"/>
-      <c r="J29" s="170"/>
-      <c r="K29" s="170"/>
-      <c r="L29" s="170"/>
-      <c r="M29" s="170"/>
-      <c r="N29" s="192"/>
-      <c r="O29" s="193"/>
-      <c r="P29" s="193"/>
-      <c r="Q29" s="193"/>
-      <c r="R29" s="194"/>
-      <c r="S29" s="188"/>
-      <c r="T29" s="188"/>
-      <c r="U29" s="188"/>
-      <c r="V29" s="188"/>
-      <c r="W29" s="188"/>
-      <c r="X29" s="188"/>
-      <c r="Y29" s="189"/>
-      <c r="Z29" s="189"/>
-      <c r="AA29" s="189"/>
-      <c r="AB29" s="279"/>
-      <c r="AC29" s="279"/>
-      <c r="AD29" s="279"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="163"/>
+      <c r="H29" s="163"/>
+      <c r="I29" s="163"/>
+      <c r="J29" s="163"/>
+      <c r="K29" s="163"/>
+      <c r="L29" s="163"/>
+      <c r="M29" s="163"/>
+      <c r="N29" s="180"/>
+      <c r="O29" s="181"/>
+      <c r="P29" s="181"/>
+      <c r="Q29" s="181"/>
+      <c r="R29" s="182"/>
+      <c r="S29" s="176"/>
+      <c r="T29" s="176"/>
+      <c r="U29" s="176"/>
+      <c r="V29" s="176"/>
+      <c r="W29" s="176"/>
+      <c r="X29" s="176"/>
+      <c r="Y29" s="177"/>
+      <c r="Z29" s="177"/>
+      <c r="AA29" s="177"/>
+      <c r="AB29" s="267"/>
+      <c r="AC29" s="267"/>
+      <c r="AD29" s="267"/>
     </row>
     <row r="30" spans="1:30" ht="22.9" customHeight="1">
-      <c r="A30" s="221"/>
-      <c r="B30" s="167"/>
-      <c r="C30" s="74">
+      <c r="A30" s="208"/>
+      <c r="B30" s="161"/>
+      <c r="C30" s="68">
         <v>27</v>
       </c>
-      <c r="D30" s="73"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="170"/>
-      <c r="H30" s="170"/>
-      <c r="I30" s="170"/>
-      <c r="J30" s="170"/>
-      <c r="K30" s="170"/>
-      <c r="L30" s="170"/>
-      <c r="M30" s="170"/>
-      <c r="N30" s="192"/>
-      <c r="O30" s="193"/>
-      <c r="P30" s="193"/>
-      <c r="Q30" s="193"/>
-      <c r="R30" s="194"/>
-      <c r="S30" s="188"/>
-      <c r="T30" s="188"/>
-      <c r="U30" s="188"/>
-      <c r="V30" s="188"/>
-      <c r="W30" s="188"/>
-      <c r="X30" s="188"/>
-      <c r="Y30" s="198"/>
-      <c r="Z30" s="199"/>
-      <c r="AA30" s="200"/>
-      <c r="AB30" s="279"/>
-      <c r="AC30" s="279"/>
-      <c r="AD30" s="279"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="163"/>
+      <c r="H30" s="163"/>
+      <c r="I30" s="163"/>
+      <c r="J30" s="163"/>
+      <c r="K30" s="163"/>
+      <c r="L30" s="163"/>
+      <c r="M30" s="163"/>
+      <c r="N30" s="180"/>
+      <c r="O30" s="181"/>
+      <c r="P30" s="181"/>
+      <c r="Q30" s="181"/>
+      <c r="R30" s="182"/>
+      <c r="S30" s="176"/>
+      <c r="T30" s="176"/>
+      <c r="U30" s="176"/>
+      <c r="V30" s="176"/>
+      <c r="W30" s="176"/>
+      <c r="X30" s="176"/>
+      <c r="Y30" s="185"/>
+      <c r="Z30" s="186"/>
+      <c r="AA30" s="187"/>
+      <c r="AB30" s="267"/>
+      <c r="AC30" s="267"/>
+      <c r="AD30" s="267"/>
     </row>
     <row r="31" spans="1:30" ht="22.9" customHeight="1">
-      <c r="A31" s="221"/>
-      <c r="B31" s="167"/>
-      <c r="C31" s="74">
+      <c r="A31" s="208"/>
+      <c r="B31" s="161"/>
+      <c r="C31" s="68">
         <v>28</v>
       </c>
-      <c r="D31" s="73"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="170"/>
-      <c r="H31" s="170"/>
-      <c r="I31" s="170"/>
-      <c r="J31" s="170"/>
-      <c r="K31" s="170"/>
-      <c r="L31" s="170"/>
-      <c r="M31" s="170"/>
-      <c r="N31" s="192"/>
-      <c r="O31" s="193"/>
-      <c r="P31" s="193"/>
-      <c r="Q31" s="193"/>
-      <c r="R31" s="194"/>
-      <c r="S31" s="188"/>
-      <c r="T31" s="188"/>
-      <c r="U31" s="188"/>
-      <c r="V31" s="188"/>
-      <c r="W31" s="188"/>
-      <c r="X31" s="188"/>
-      <c r="Y31" s="198"/>
-      <c r="Z31" s="199"/>
-      <c r="AA31" s="200"/>
-      <c r="AB31" s="83"/>
-      <c r="AC31" s="83"/>
-      <c r="AD31" s="83"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="163"/>
+      <c r="H31" s="163"/>
+      <c r="I31" s="163"/>
+      <c r="J31" s="163"/>
+      <c r="K31" s="163"/>
+      <c r="L31" s="163"/>
+      <c r="M31" s="163"/>
+      <c r="N31" s="180"/>
+      <c r="O31" s="181"/>
+      <c r="P31" s="181"/>
+      <c r="Q31" s="181"/>
+      <c r="R31" s="182"/>
+      <c r="S31" s="176"/>
+      <c r="T31" s="176"/>
+      <c r="U31" s="176"/>
+      <c r="V31" s="176"/>
+      <c r="W31" s="176"/>
+      <c r="X31" s="176"/>
+      <c r="Y31" s="185"/>
+      <c r="Z31" s="186"/>
+      <c r="AA31" s="187"/>
+      <c r="AB31" s="111"/>
+      <c r="AC31" s="111"/>
+      <c r="AD31" s="111"/>
     </row>
     <row r="32" spans="1:30" ht="22.9" customHeight="1" thickBot="1">
-      <c r="A32" s="222"/>
-      <c r="B32" s="168"/>
-      <c r="C32" s="75">
+      <c r="A32" s="209"/>
+      <c r="B32" s="162"/>
+      <c r="C32" s="69">
         <v>29</v>
       </c>
-      <c r="D32" s="76"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="223"/>
-      <c r="H32" s="223"/>
-      <c r="I32" s="223"/>
-      <c r="J32" s="223"/>
-      <c r="K32" s="223"/>
-      <c r="L32" s="223"/>
-      <c r="M32" s="223"/>
-      <c r="N32" s="205"/>
-      <c r="O32" s="206"/>
-      <c r="P32" s="206"/>
-      <c r="Q32" s="206"/>
-      <c r="R32" s="207"/>
-      <c r="S32" s="196"/>
-      <c r="T32" s="196"/>
-      <c r="U32" s="196"/>
-      <c r="V32" s="196"/>
-      <c r="W32" s="196"/>
-      <c r="X32" s="196"/>
-      <c r="Y32" s="201"/>
-      <c r="Z32" s="202"/>
-      <c r="AA32" s="203"/>
-      <c r="AB32" s="280"/>
-      <c r="AC32" s="280"/>
-      <c r="AD32" s="280"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="210"/>
+      <c r="H32" s="210"/>
+      <c r="I32" s="210"/>
+      <c r="J32" s="210"/>
+      <c r="K32" s="210"/>
+      <c r="L32" s="210"/>
+      <c r="M32" s="210"/>
+      <c r="N32" s="192"/>
+      <c r="O32" s="193"/>
+      <c r="P32" s="193"/>
+      <c r="Q32" s="193"/>
+      <c r="R32" s="194"/>
+      <c r="S32" s="183"/>
+      <c r="T32" s="183"/>
+      <c r="U32" s="183"/>
+      <c r="V32" s="183"/>
+      <c r="W32" s="183"/>
+      <c r="X32" s="183"/>
+      <c r="Y32" s="188"/>
+      <c r="Z32" s="189"/>
+      <c r="AA32" s="190"/>
+      <c r="AB32" s="268"/>
+      <c r="AC32" s="268"/>
+      <c r="AD32" s="268"/>
     </row>
     <row r="33" spans="1:30" ht="14.25" customHeight="1">
-      <c r="A33" s="220" t="s">
+      <c r="A33" s="207" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="166"/>
+      <c r="B33" s="160"/>
       <c r="C33" s="13"/>
       <c r="D33" s="7"/>
       <c r="E33" s="16"/>
@@ -4871,8 +4810,8 @@
       <c r="AD33" s="35"/>
     </row>
     <row r="34" spans="1:30" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A34" s="221"/>
-      <c r="B34" s="167"/>
+      <c r="A34" s="208"/>
+      <c r="B34" s="161"/>
       <c r="C34" s="13"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -4903,146 +4842,146 @@
       <c r="AD34" s="40"/>
     </row>
     <row r="35" spans="1:30" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A35" s="221"/>
-      <c r="B35" s="167"/>
+      <c r="A35" s="208"/>
+      <c r="B35" s="161"/>
       <c r="C35" s="13"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="214"/>
-      <c r="I35" s="215"/>
-      <c r="J35" s="214"/>
-      <c r="K35" s="215"/>
-      <c r="L35" s="214"/>
-      <c r="M35" s="218"/>
-      <c r="N35" s="215"/>
+      <c r="H35" s="201"/>
+      <c r="I35" s="202"/>
+      <c r="J35" s="201"/>
+      <c r="K35" s="202"/>
+      <c r="L35" s="201"/>
+      <c r="M35" s="205"/>
+      <c r="N35" s="202"/>
       <c r="O35" s="41"/>
       <c r="P35" s="41"/>
-      <c r="Q35" s="204"/>
-      <c r="R35" s="204"/>
-      <c r="S35" s="204"/>
-      <c r="T35" s="204"/>
-      <c r="U35" s="204"/>
-      <c r="V35" s="204"/>
-      <c r="W35" s="204"/>
-      <c r="X35" s="204"/>
-      <c r="Y35" s="204"/>
-      <c r="Z35" s="204"/>
-      <c r="AA35" s="204"/>
-      <c r="AB35" s="204"/>
-      <c r="AC35" s="204"/>
-      <c r="AD35" s="90" t="s">
+      <c r="Q35" s="191"/>
+      <c r="R35" s="191"/>
+      <c r="S35" s="191"/>
+      <c r="T35" s="191"/>
+      <c r="U35" s="191"/>
+      <c r="V35" s="191"/>
+      <c r="W35" s="191"/>
+      <c r="X35" s="191"/>
+      <c r="Y35" s="191"/>
+      <c r="Z35" s="191"/>
+      <c r="AA35" s="191"/>
+      <c r="AB35" s="191"/>
+      <c r="AC35" s="191"/>
+      <c r="AD35" s="87" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:30" ht="6.95" customHeight="1" thickBot="1">
-      <c r="A36" s="221"/>
-      <c r="B36" s="167"/>
+      <c r="A36" s="208"/>
+      <c r="B36" s="161"/>
       <c r="C36" s="13"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="208"/>
-      <c r="I36" s="209"/>
-      <c r="J36" s="208"/>
-      <c r="K36" s="209"/>
-      <c r="L36" s="208"/>
-      <c r="M36" s="212"/>
-      <c r="N36" s="209"/>
-      <c r="O36" s="197"/>
-      <c r="P36" s="197"/>
-      <c r="Q36" s="204"/>
-      <c r="R36" s="204"/>
-      <c r="S36" s="204"/>
-      <c r="T36" s="204"/>
-      <c r="U36" s="204"/>
-      <c r="V36" s="204"/>
-      <c r="W36" s="204"/>
-      <c r="X36" s="204"/>
-      <c r="Y36" s="204"/>
-      <c r="Z36" s="204"/>
-      <c r="AA36" s="204"/>
-      <c r="AB36" s="204"/>
-      <c r="AC36" s="204"/>
-      <c r="AD36" s="90"/>
+      <c r="H36" s="195"/>
+      <c r="I36" s="196"/>
+      <c r="J36" s="195"/>
+      <c r="K36" s="196"/>
+      <c r="L36" s="195"/>
+      <c r="M36" s="199"/>
+      <c r="N36" s="196"/>
+      <c r="O36" s="184"/>
+      <c r="P36" s="184"/>
+      <c r="Q36" s="191"/>
+      <c r="R36" s="191"/>
+      <c r="S36" s="191"/>
+      <c r="T36" s="191"/>
+      <c r="U36" s="191"/>
+      <c r="V36" s="191"/>
+      <c r="W36" s="191"/>
+      <c r="X36" s="191"/>
+      <c r="Y36" s="191"/>
+      <c r="Z36" s="191"/>
+      <c r="AA36" s="191"/>
+      <c r="AB36" s="191"/>
+      <c r="AC36" s="191"/>
+      <c r="AD36" s="87"/>
     </row>
     <row r="37" spans="1:30" ht="6.95" customHeight="1" thickBot="1">
-      <c r="A37" s="221"/>
-      <c r="B37" s="167"/>
+      <c r="A37" s="208"/>
+      <c r="B37" s="161"/>
       <c r="C37" s="13"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
-      <c r="H37" s="210"/>
-      <c r="I37" s="211"/>
-      <c r="J37" s="210"/>
-      <c r="K37" s="211"/>
-      <c r="L37" s="210"/>
-      <c r="M37" s="213"/>
-      <c r="N37" s="211"/>
-      <c r="O37" s="197"/>
-      <c r="P37" s="197"/>
-      <c r="Q37" s="204"/>
-      <c r="R37" s="204"/>
-      <c r="S37" s="204"/>
-      <c r="T37" s="204"/>
-      <c r="U37" s="204"/>
-      <c r="V37" s="204"/>
-      <c r="W37" s="204"/>
-      <c r="X37" s="204"/>
-      <c r="Y37" s="204"/>
-      <c r="Z37" s="204"/>
-      <c r="AA37" s="204"/>
-      <c r="AB37" s="204"/>
-      <c r="AC37" s="204"/>
-      <c r="AD37" s="90">
+      <c r="H37" s="197"/>
+      <c r="I37" s="198"/>
+      <c r="J37" s="197"/>
+      <c r="K37" s="198"/>
+      <c r="L37" s="197"/>
+      <c r="M37" s="200"/>
+      <c r="N37" s="198"/>
+      <c r="O37" s="184"/>
+      <c r="P37" s="184"/>
+      <c r="Q37" s="191"/>
+      <c r="R37" s="191"/>
+      <c r="S37" s="191"/>
+      <c r="T37" s="191"/>
+      <c r="U37" s="191"/>
+      <c r="V37" s="191"/>
+      <c r="W37" s="191"/>
+      <c r="X37" s="191"/>
+      <c r="Y37" s="191"/>
+      <c r="Z37" s="191"/>
+      <c r="AA37" s="191"/>
+      <c r="AB37" s="191"/>
+      <c r="AC37" s="191"/>
+      <c r="AD37" s="87">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A38" s="222"/>
-      <c r="B38" s="168"/>
+      <c r="A38" s="209"/>
+      <c r="B38" s="162"/>
       <c r="C38" s="23"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
       <c r="G38" s="24"/>
-      <c r="H38" s="216" t="s">
+      <c r="H38" s="203" t="s">
         <v>6</v>
       </c>
-      <c r="I38" s="217"/>
-      <c r="J38" s="216" t="s">
+      <c r="I38" s="204"/>
+      <c r="J38" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="K38" s="217"/>
-      <c r="L38" s="216" t="s">
+      <c r="K38" s="204"/>
+      <c r="L38" s="203" t="s">
         <v>41</v>
       </c>
-      <c r="M38" s="219"/>
-      <c r="N38" s="217"/>
+      <c r="M38" s="206"/>
+      <c r="N38" s="204"/>
       <c r="O38" s="42" t="s">
         <v>7</v>
       </c>
       <c r="P38" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="Q38" s="204"/>
-      <c r="R38" s="204"/>
-      <c r="S38" s="204"/>
-      <c r="T38" s="204"/>
-      <c r="U38" s="204"/>
-      <c r="V38" s="204"/>
-      <c r="W38" s="204"/>
-      <c r="X38" s="204"/>
-      <c r="Y38" s="204"/>
-      <c r="Z38" s="204"/>
-      <c r="AA38" s="204"/>
-      <c r="AB38" s="204"/>
-      <c r="AC38" s="204"/>
-      <c r="AD38" s="90"/>
+      <c r="Q38" s="191"/>
+      <c r="R38" s="191"/>
+      <c r="S38" s="191"/>
+      <c r="T38" s="191"/>
+      <c r="U38" s="191"/>
+      <c r="V38" s="191"/>
+      <c r="W38" s="191"/>
+      <c r="X38" s="191"/>
+      <c r="Y38" s="191"/>
+      <c r="Z38" s="191"/>
+      <c r="AA38" s="191"/>
+      <c r="AB38" s="191"/>
+      <c r="AC38" s="191"/>
+      <c r="AD38" s="87"/>
     </row>
     <row r="39" spans="1:30" ht="15.75">
       <c r="O39" s="43"/>
@@ -5329,7 +5268,7 @@
   </sheetPr>
   <dimension ref="A1:Y48"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
@@ -5356,777 +5295,777 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="29.25" customHeight="1">
-      <c r="A1" s="237"/>
-      <c r="D1" s="238" t="s">
+      <c r="A1" s="222"/>
+      <c r="D1" s="223" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="238"/>
-      <c r="K1" s="238"/>
-      <c r="L1" s="238"/>
-      <c r="M1" s="238"/>
-      <c r="N1" s="238"/>
-      <c r="O1" s="238"/>
-      <c r="P1" s="238"/>
-      <c r="Q1" s="238"/>
-      <c r="R1" s="238"/>
-      <c r="S1" s="238"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+      <c r="H1" s="223"/>
+      <c r="I1" s="223"/>
+      <c r="J1" s="223"/>
+      <c r="K1" s="223"/>
+      <c r="L1" s="223"/>
+      <c r="M1" s="223"/>
+      <c r="N1" s="223"/>
+      <c r="O1" s="223"/>
+      <c r="P1" s="223"/>
+      <c r="Q1" s="223"/>
+      <c r="R1" s="223"/>
+      <c r="S1" s="223"/>
     </row>
     <row r="2" spans="1:19" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A2" s="237"/>
-      <c r="D2" s="239" t="s">
+      <c r="A2" s="222"/>
+      <c r="D2" s="224" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="240"/>
-      <c r="F2" s="229" t="s">
+      <c r="E2" s="225"/>
+      <c r="F2" s="214" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="230"/>
-      <c r="H2" s="230"/>
-      <c r="I2" s="230"/>
-      <c r="J2" s="230"/>
-      <c r="K2" s="230"/>
-      <c r="L2" s="230"/>
-      <c r="M2" s="231"/>
-      <c r="N2" s="232" t="s">
+      <c r="G2" s="215"/>
+      <c r="H2" s="215"/>
+      <c r="I2" s="215"/>
+      <c r="J2" s="215"/>
+      <c r="K2" s="215"/>
+      <c r="L2" s="215"/>
+      <c r="M2" s="216"/>
+      <c r="N2" s="217" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="232" t="s">
+      <c r="O2" s="217" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="260" t="s">
+      <c r="P2" s="245" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="232" t="s">
+      <c r="Q2" s="217" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="239" t="s">
+      <c r="R2" s="224" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="240"/>
+      <c r="S2" s="225"/>
     </row>
     <row r="3" spans="1:19" ht="50.25" customHeight="1" thickBot="1">
-      <c r="A3" s="237"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="242"/>
-      <c r="F3" s="243" t="s">
+      <c r="A3" s="222"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="227"/>
+      <c r="F3" s="228" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="244"/>
-      <c r="H3" s="243" t="s">
+      <c r="G3" s="229"/>
+      <c r="H3" s="228" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="244"/>
-      <c r="J3" s="243" t="s">
+      <c r="I3" s="229"/>
+      <c r="J3" s="228" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="275"/>
-      <c r="L3" s="244"/>
+      <c r="K3" s="260"/>
+      <c r="L3" s="229"/>
       <c r="M3" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="233"/>
-      <c r="O3" s="233"/>
-      <c r="P3" s="261"/>
-      <c r="Q3" s="233"/>
-      <c r="R3" s="241"/>
-      <c r="S3" s="242"/>
+      <c r="N3" s="218"/>
+      <c r="O3" s="218"/>
+      <c r="P3" s="246"/>
+      <c r="Q3" s="218"/>
+      <c r="R3" s="226"/>
+      <c r="S3" s="227"/>
     </row>
     <row r="4" spans="1:19" s="47" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="237"/>
-      <c r="D4" s="264"/>
-      <c r="E4" s="265"/>
-      <c r="F4" s="262"/>
-      <c r="G4" s="263"/>
-      <c r="H4" s="264"/>
-      <c r="I4" s="265"/>
-      <c r="J4" s="262"/>
-      <c r="K4" s="276"/>
-      <c r="L4" s="263"/>
+      <c r="A4" s="222"/>
+      <c r="D4" s="249"/>
+      <c r="E4" s="250"/>
+      <c r="F4" s="247"/>
+      <c r="G4" s="248"/>
+      <c r="H4" s="249"/>
+      <c r="I4" s="250"/>
+      <c r="J4" s="247"/>
+      <c r="K4" s="261"/>
+      <c r="L4" s="248"/>
       <c r="M4" s="55"/>
       <c r="N4" s="56"/>
       <c r="O4" s="57"/>
       <c r="P4" s="57"/>
       <c r="Q4" s="57"/>
-      <c r="R4" s="262"/>
-      <c r="S4" s="263"/>
+      <c r="R4" s="247"/>
+      <c r="S4" s="248"/>
     </row>
     <row r="5" spans="1:19" s="47" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A5" s="237"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="227"/>
-      <c r="G5" s="228"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="227"/>
-      <c r="K5" s="245"/>
-      <c r="L5" s="228"/>
+      <c r="A5" s="222"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="144"/>
+      <c r="K5" s="230"/>
+      <c r="L5" s="145"/>
       <c r="M5" s="58"/>
       <c r="N5" s="59"/>
       <c r="O5" s="60"/>
       <c r="P5" s="60"/>
       <c r="Q5" s="60"/>
-      <c r="R5" s="227"/>
-      <c r="S5" s="228"/>
+      <c r="R5" s="144"/>
+      <c r="S5" s="145"/>
     </row>
     <row r="6" spans="1:19" s="47" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A6" s="237"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="227"/>
-      <c r="G6" s="228"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="227"/>
-      <c r="K6" s="245"/>
-      <c r="L6" s="228"/>
+      <c r="A6" s="222"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="230"/>
+      <c r="L6" s="145"/>
       <c r="M6" s="58"/>
       <c r="N6" s="59"/>
       <c r="O6" s="60"/>
       <c r="P6" s="60"/>
       <c r="Q6" s="60"/>
-      <c r="R6" s="227"/>
-      <c r="S6" s="228"/>
+      <c r="R6" s="144"/>
+      <c r="S6" s="145"/>
     </row>
     <row r="7" spans="1:19" s="47" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A7" s="237"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="227"/>
-      <c r="G7" s="228"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="227"/>
-      <c r="K7" s="245"/>
-      <c r="L7" s="228"/>
+      <c r="A7" s="222"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="144"/>
+      <c r="K7" s="230"/>
+      <c r="L7" s="145"/>
       <c r="M7" s="58"/>
       <c r="N7" s="59"/>
       <c r="O7" s="60"/>
       <c r="P7" s="60"/>
       <c r="Q7" s="60"/>
-      <c r="R7" s="227"/>
-      <c r="S7" s="228"/>
+      <c r="R7" s="144"/>
+      <c r="S7" s="145"/>
     </row>
     <row r="8" spans="1:19" s="47" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A8" s="237"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="227"/>
-      <c r="G8" s="228"/>
-      <c r="H8" s="139"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="227"/>
-      <c r="K8" s="245"/>
-      <c r="L8" s="228"/>
+      <c r="A8" s="222"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="144"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="144"/>
+      <c r="K8" s="230"/>
+      <c r="L8" s="145"/>
       <c r="M8" s="58"/>
       <c r="N8" s="59"/>
       <c r="O8" s="60"/>
       <c r="P8" s="60"/>
       <c r="Q8" s="60"/>
-      <c r="R8" s="227"/>
-      <c r="S8" s="228"/>
+      <c r="R8" s="144"/>
+      <c r="S8" s="145"/>
     </row>
     <row r="9" spans="1:19" s="47" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A9" s="237"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="227"/>
-      <c r="G9" s="228"/>
-      <c r="H9" s="139"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="227"/>
-      <c r="K9" s="245"/>
-      <c r="L9" s="228"/>
+      <c r="A9" s="222"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="144"/>
+      <c r="G9" s="145"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="144"/>
+      <c r="K9" s="230"/>
+      <c r="L9" s="145"/>
       <c r="M9" s="58"/>
       <c r="N9" s="59"/>
       <c r="O9" s="60"/>
       <c r="P9" s="60"/>
       <c r="Q9" s="60"/>
-      <c r="R9" s="227"/>
-      <c r="S9" s="228"/>
+      <c r="R9" s="144"/>
+      <c r="S9" s="145"/>
     </row>
     <row r="10" spans="1:19" s="47" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A10" s="237"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="140"/>
-      <c r="F10" s="227"/>
-      <c r="G10" s="228"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="227"/>
-      <c r="K10" s="245"/>
-      <c r="L10" s="228"/>
+      <c r="A10" s="222"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="144"/>
+      <c r="K10" s="230"/>
+      <c r="L10" s="145"/>
       <c r="M10" s="58"/>
       <c r="N10" s="59"/>
       <c r="O10" s="60"/>
       <c r="P10" s="60"/>
       <c r="Q10" s="60"/>
-      <c r="R10" s="227"/>
-      <c r="S10" s="228"/>
+      <c r="R10" s="144"/>
+      <c r="S10" s="145"/>
     </row>
     <row r="11" spans="1:19" s="47" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A11" s="237"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="227"/>
-      <c r="G11" s="228"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="227"/>
-      <c r="K11" s="245"/>
-      <c r="L11" s="228"/>
+      <c r="A11" s="222"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="144"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="144"/>
+      <c r="K11" s="230"/>
+      <c r="L11" s="145"/>
       <c r="M11" s="58"/>
       <c r="N11" s="59"/>
       <c r="O11" s="60"/>
       <c r="P11" s="60"/>
       <c r="Q11" s="60"/>
-      <c r="R11" s="227"/>
-      <c r="S11" s="228"/>
+      <c r="R11" s="144"/>
+      <c r="S11" s="145"/>
     </row>
     <row r="12" spans="1:19" s="47" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A12" s="237"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="227"/>
-      <c r="G12" s="228"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="227"/>
-      <c r="K12" s="245"/>
-      <c r="L12" s="228"/>
+      <c r="A12" s="222"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="144"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="144"/>
+      <c r="K12" s="230"/>
+      <c r="L12" s="145"/>
       <c r="M12" s="58"/>
       <c r="N12" s="59"/>
       <c r="O12" s="60"/>
       <c r="P12" s="60"/>
       <c r="Q12" s="60"/>
-      <c r="R12" s="227"/>
-      <c r="S12" s="228"/>
+      <c r="R12" s="144"/>
+      <c r="S12" s="145"/>
     </row>
     <row r="13" spans="1:19" s="47" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A13" s="237"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="227"/>
-      <c r="G13" s="228"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="227"/>
-      <c r="K13" s="245"/>
-      <c r="L13" s="228"/>
+      <c r="A13" s="222"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="144"/>
+      <c r="K13" s="230"/>
+      <c r="L13" s="145"/>
       <c r="M13" s="58"/>
       <c r="N13" s="59"/>
       <c r="O13" s="60"/>
       <c r="P13" s="60"/>
       <c r="Q13" s="60"/>
-      <c r="R13" s="227"/>
-      <c r="S13" s="228"/>
+      <c r="R13" s="144"/>
+      <c r="S13" s="145"/>
     </row>
     <row r="14" spans="1:19" s="47" customFormat="1" ht="23.25" customHeight="1">
-      <c r="D14" s="139"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="227"/>
-      <c r="G14" s="228"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="227"/>
-      <c r="K14" s="245"/>
-      <c r="L14" s="228"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="144"/>
+      <c r="K14" s="230"/>
+      <c r="L14" s="145"/>
       <c r="M14" s="58"/>
       <c r="N14" s="59"/>
       <c r="O14" s="60"/>
       <c r="P14" s="60"/>
       <c r="Q14" s="60"/>
-      <c r="R14" s="227"/>
-      <c r="S14" s="228"/>
+      <c r="R14" s="144"/>
+      <c r="S14" s="145"/>
     </row>
     <row r="15" spans="1:19" s="47" customFormat="1" ht="22.5" customHeight="1">
-      <c r="D15" s="139"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="227"/>
-      <c r="G15" s="228"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="227"/>
-      <c r="K15" s="245"/>
-      <c r="L15" s="228"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="144"/>
+      <c r="K15" s="230"/>
+      <c r="L15" s="145"/>
       <c r="M15" s="58"/>
       <c r="N15" s="59"/>
       <c r="O15" s="60"/>
       <c r="P15" s="60"/>
       <c r="Q15" s="60"/>
-      <c r="R15" s="227"/>
-      <c r="S15" s="228"/>
+      <c r="R15" s="144"/>
+      <c r="S15" s="145"/>
     </row>
     <row r="16" spans="1:19" s="47" customFormat="1" ht="23.25" customHeight="1">
-      <c r="D16" s="139"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="227"/>
-      <c r="G16" s="228"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="227"/>
-      <c r="K16" s="245"/>
-      <c r="L16" s="228"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="230"/>
+      <c r="L16" s="145"/>
       <c r="M16" s="58"/>
       <c r="N16" s="59"/>
       <c r="O16" s="60"/>
       <c r="P16" s="60"/>
       <c r="Q16" s="60"/>
-      <c r="R16" s="227"/>
-      <c r="S16" s="228"/>
+      <c r="R16" s="144"/>
+      <c r="S16" s="145"/>
     </row>
     <row r="17" spans="2:19" s="47" customFormat="1" ht="22.5" customHeight="1">
       <c r="B17" s="48"/>
       <c r="C17" s="48"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
-      <c r="F17" s="227"/>
-      <c r="G17" s="228"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
-      <c r="J17" s="227"/>
-      <c r="K17" s="245"/>
-      <c r="L17" s="228"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="136"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="144"/>
+      <c r="K17" s="230"/>
+      <c r="L17" s="145"/>
       <c r="M17" s="58"/>
       <c r="N17" s="59"/>
       <c r="O17" s="60"/>
       <c r="P17" s="60"/>
       <c r="Q17" s="60"/>
-      <c r="R17" s="227"/>
-      <c r="S17" s="228"/>
+      <c r="R17" s="144"/>
+      <c r="S17" s="145"/>
     </row>
     <row r="18" spans="2:19" s="47" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="B18" s="37"/>
       <c r="C18" s="49"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="227"/>
-      <c r="G18" s="228"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="227"/>
-      <c r="K18" s="245"/>
-      <c r="L18" s="228"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="144"/>
+      <c r="K18" s="230"/>
+      <c r="L18" s="145"/>
       <c r="M18" s="58"/>
       <c r="N18" s="59"/>
       <c r="O18" s="60"/>
       <c r="P18" s="60"/>
       <c r="Q18" s="60"/>
-      <c r="R18" s="227"/>
-      <c r="S18" s="228"/>
+      <c r="R18" s="144"/>
+      <c r="S18" s="145"/>
     </row>
     <row r="19" spans="2:19" s="47" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B19" s="166" t="s">
+      <c r="B19" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="234"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="227"/>
-      <c r="G19" s="228"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="227"/>
-      <c r="K19" s="245"/>
-      <c r="L19" s="228"/>
+      <c r="C19" s="219"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="144"/>
+      <c r="K19" s="230"/>
+      <c r="L19" s="145"/>
       <c r="M19" s="58"/>
       <c r="N19" s="59"/>
       <c r="O19" s="60"/>
       <c r="P19" s="60"/>
       <c r="Q19" s="60"/>
-      <c r="R19" s="227"/>
-      <c r="S19" s="228"/>
+      <c r="R19" s="144"/>
+      <c r="S19" s="145"/>
     </row>
     <row r="20" spans="2:19" s="47" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B20" s="167"/>
-      <c r="C20" s="235"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="140"/>
-      <c r="F20" s="227"/>
-      <c r="G20" s="228"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="227"/>
-      <c r="K20" s="245"/>
-      <c r="L20" s="228"/>
+      <c r="B20" s="161"/>
+      <c r="C20" s="220"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="136"/>
+      <c r="I20" s="137"/>
+      <c r="J20" s="144"/>
+      <c r="K20" s="230"/>
+      <c r="L20" s="145"/>
       <c r="M20" s="58"/>
       <c r="N20" s="59"/>
       <c r="O20" s="60"/>
       <c r="P20" s="60"/>
       <c r="Q20" s="60"/>
-      <c r="R20" s="227"/>
-      <c r="S20" s="228"/>
+      <c r="R20" s="144"/>
+      <c r="S20" s="145"/>
     </row>
     <row r="21" spans="2:19" s="47" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B21" s="167"/>
-      <c r="C21" s="235"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="140"/>
-      <c r="F21" s="227"/>
-      <c r="G21" s="228"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="227"/>
-      <c r="K21" s="245"/>
-      <c r="L21" s="228"/>
+      <c r="B21" s="161"/>
+      <c r="C21" s="220"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="136"/>
+      <c r="I21" s="137"/>
+      <c r="J21" s="144"/>
+      <c r="K21" s="230"/>
+      <c r="L21" s="145"/>
       <c r="M21" s="58"/>
       <c r="N21" s="59"/>
       <c r="O21" s="60"/>
       <c r="P21" s="60"/>
       <c r="Q21" s="60"/>
-      <c r="R21" s="227"/>
-      <c r="S21" s="228"/>
+      <c r="R21" s="144"/>
+      <c r="S21" s="145"/>
     </row>
     <row r="22" spans="2:19" s="47" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B22" s="168"/>
-      <c r="C22" s="236"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="140"/>
-      <c r="F22" s="227"/>
-      <c r="G22" s="228"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="140"/>
-      <c r="J22" s="227"/>
-      <c r="K22" s="245"/>
-      <c r="L22" s="228"/>
+      <c r="B22" s="162"/>
+      <c r="C22" s="221"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="144"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="137"/>
+      <c r="J22" s="144"/>
+      <c r="K22" s="230"/>
+      <c r="L22" s="145"/>
       <c r="M22" s="58"/>
       <c r="N22" s="59"/>
       <c r="O22" s="60"/>
       <c r="P22" s="60"/>
       <c r="Q22" s="60"/>
-      <c r="R22" s="227"/>
-      <c r="S22" s="228"/>
+      <c r="R22" s="144"/>
+      <c r="S22" s="145"/>
     </row>
     <row r="23" spans="2:19" s="47" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B23" s="166" t="s">
+      <c r="B23" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="234"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="140"/>
-      <c r="F23" s="227"/>
-      <c r="G23" s="228"/>
-      <c r="H23" s="139"/>
-      <c r="I23" s="140"/>
-      <c r="J23" s="227"/>
-      <c r="K23" s="245"/>
-      <c r="L23" s="228"/>
+      <c r="C23" s="219"/>
+      <c r="D23" s="136"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="144"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="137"/>
+      <c r="J23" s="144"/>
+      <c r="K23" s="230"/>
+      <c r="L23" s="145"/>
       <c r="M23" s="58"/>
       <c r="N23" s="59"/>
       <c r="O23" s="60"/>
       <c r="P23" s="60"/>
       <c r="Q23" s="60"/>
-      <c r="R23" s="227"/>
-      <c r="S23" s="228"/>
+      <c r="R23" s="144"/>
+      <c r="S23" s="145"/>
     </row>
     <row r="24" spans="2:19" s="47" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B24" s="167"/>
-      <c r="C24" s="235"/>
-      <c r="D24" s="139"/>
-      <c r="E24" s="140"/>
-      <c r="F24" s="227"/>
-      <c r="G24" s="228"/>
-      <c r="H24" s="139"/>
-      <c r="I24" s="140"/>
-      <c r="J24" s="227"/>
-      <c r="K24" s="245"/>
-      <c r="L24" s="228"/>
+      <c r="B24" s="161"/>
+      <c r="C24" s="220"/>
+      <c r="D24" s="136"/>
+      <c r="E24" s="137"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="136"/>
+      <c r="I24" s="137"/>
+      <c r="J24" s="144"/>
+      <c r="K24" s="230"/>
+      <c r="L24" s="145"/>
       <c r="M24" s="58"/>
       <c r="N24" s="59"/>
       <c r="O24" s="60"/>
       <c r="P24" s="60"/>
       <c r="Q24" s="60"/>
-      <c r="R24" s="227"/>
-      <c r="S24" s="228"/>
+      <c r="R24" s="144"/>
+      <c r="S24" s="145"/>
     </row>
     <row r="25" spans="2:19" s="47" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
-      <c r="B25" s="168"/>
-      <c r="C25" s="236"/>
-      <c r="D25" s="139"/>
-      <c r="E25" s="140"/>
-      <c r="F25" s="227"/>
-      <c r="G25" s="228"/>
-      <c r="H25" s="139"/>
-      <c r="I25" s="140"/>
-      <c r="J25" s="227"/>
-      <c r="K25" s="245"/>
-      <c r="L25" s="228"/>
+      <c r="B25" s="162"/>
+      <c r="C25" s="221"/>
+      <c r="D25" s="136"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="144"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="136"/>
+      <c r="I25" s="137"/>
+      <c r="J25" s="144"/>
+      <c r="K25" s="230"/>
+      <c r="L25" s="145"/>
       <c r="M25" s="58"/>
       <c r="N25" s="59"/>
       <c r="O25" s="60"/>
       <c r="P25" s="60"/>
       <c r="Q25" s="60"/>
-      <c r="R25" s="227"/>
-      <c r="S25" s="228"/>
+      <c r="R25" s="144"/>
+      <c r="S25" s="145"/>
     </row>
     <row r="26" spans="2:19" s="47" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B26" s="166" t="s">
+      <c r="B26" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="234"/>
-      <c r="D26" s="139"/>
-      <c r="E26" s="140"/>
-      <c r="F26" s="227"/>
-      <c r="G26" s="228"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="140"/>
-      <c r="J26" s="227"/>
-      <c r="K26" s="245"/>
-      <c r="L26" s="228"/>
+      <c r="C26" s="219"/>
+      <c r="D26" s="136"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="136"/>
+      <c r="I26" s="137"/>
+      <c r="J26" s="144"/>
+      <c r="K26" s="230"/>
+      <c r="L26" s="145"/>
       <c r="M26" s="58"/>
       <c r="N26" s="59"/>
       <c r="O26" s="60"/>
       <c r="P26" s="60"/>
       <c r="Q26" s="60"/>
-      <c r="R26" s="227"/>
-      <c r="S26" s="228"/>
+      <c r="R26" s="144"/>
+      <c r="S26" s="145"/>
     </row>
     <row r="27" spans="2:19" s="47" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B27" s="167"/>
-      <c r="C27" s="235"/>
-      <c r="D27" s="139"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="227"/>
-      <c r="G27" s="228"/>
-      <c r="H27" s="139"/>
-      <c r="I27" s="140"/>
-      <c r="J27" s="227"/>
-      <c r="K27" s="245"/>
-      <c r="L27" s="228"/>
+      <c r="B27" s="161"/>
+      <c r="C27" s="220"/>
+      <c r="D27" s="136"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="144"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="136"/>
+      <c r="I27" s="137"/>
+      <c r="J27" s="144"/>
+      <c r="K27" s="230"/>
+      <c r="L27" s="145"/>
       <c r="M27" s="58"/>
       <c r="N27" s="59"/>
       <c r="O27" s="60"/>
       <c r="P27" s="60"/>
       <c r="Q27" s="60"/>
-      <c r="R27" s="227"/>
-      <c r="S27" s="228"/>
+      <c r="R27" s="144"/>
+      <c r="S27" s="145"/>
     </row>
     <row r="28" spans="2:19" s="47" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B28" s="168"/>
-      <c r="C28" s="236"/>
-      <c r="D28" s="139"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="227"/>
-      <c r="G28" s="228"/>
-      <c r="H28" s="139"/>
-      <c r="I28" s="140"/>
-      <c r="J28" s="227"/>
-      <c r="K28" s="245"/>
-      <c r="L28" s="228"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="221"/>
+      <c r="D28" s="136"/>
+      <c r="E28" s="137"/>
+      <c r="F28" s="144"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="136"/>
+      <c r="I28" s="137"/>
+      <c r="J28" s="144"/>
+      <c r="K28" s="230"/>
+      <c r="L28" s="145"/>
       <c r="M28" s="58"/>
       <c r="N28" s="59"/>
       <c r="O28" s="60"/>
       <c r="P28" s="60"/>
       <c r="Q28" s="60"/>
-      <c r="R28" s="227"/>
-      <c r="S28" s="228"/>
+      <c r="R28" s="144"/>
+      <c r="S28" s="145"/>
     </row>
     <row r="29" spans="2:19" s="47" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B29" s="166" t="s">
+      <c r="B29" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="250"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="140"/>
-      <c r="F29" s="227"/>
-      <c r="G29" s="228"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="227"/>
-      <c r="K29" s="245"/>
-      <c r="L29" s="228"/>
+      <c r="C29" s="235"/>
+      <c r="D29" s="136"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="136"/>
+      <c r="I29" s="137"/>
+      <c r="J29" s="144"/>
+      <c r="K29" s="230"/>
+      <c r="L29" s="145"/>
       <c r="M29" s="58"/>
       <c r="N29" s="59"/>
       <c r="O29" s="60"/>
       <c r="P29" s="60"/>
       <c r="Q29" s="60"/>
-      <c r="R29" s="227"/>
-      <c r="S29" s="228"/>
+      <c r="R29" s="144"/>
+      <c r="S29" s="145"/>
     </row>
     <row r="30" spans="2:19" s="47" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B30" s="167"/>
-      <c r="C30" s="251"/>
-      <c r="D30" s="139"/>
-      <c r="E30" s="140"/>
-      <c r="F30" s="227"/>
-      <c r="G30" s="228"/>
-      <c r="H30" s="139"/>
-      <c r="I30" s="140"/>
-      <c r="J30" s="227"/>
-      <c r="K30" s="245"/>
-      <c r="L30" s="228"/>
+      <c r="B30" s="161"/>
+      <c r="C30" s="236"/>
+      <c r="D30" s="136"/>
+      <c r="E30" s="137"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="136"/>
+      <c r="I30" s="137"/>
+      <c r="J30" s="144"/>
+      <c r="K30" s="230"/>
+      <c r="L30" s="145"/>
       <c r="M30" s="58"/>
       <c r="N30" s="59"/>
       <c r="O30" s="60"/>
       <c r="P30" s="60"/>
       <c r="Q30" s="60"/>
-      <c r="R30" s="227"/>
-      <c r="S30" s="228"/>
+      <c r="R30" s="144"/>
+      <c r="S30" s="145"/>
     </row>
     <row r="31" spans="2:19" s="47" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B31" s="167"/>
-      <c r="C31" s="251"/>
-      <c r="D31" s="139"/>
-      <c r="E31" s="140"/>
-      <c r="F31" s="227"/>
-      <c r="G31" s="228"/>
-      <c r="H31" s="139"/>
-      <c r="I31" s="140"/>
-      <c r="J31" s="227"/>
-      <c r="K31" s="245"/>
-      <c r="L31" s="228"/>
+      <c r="B31" s="161"/>
+      <c r="C31" s="236"/>
+      <c r="D31" s="136"/>
+      <c r="E31" s="137"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="136"/>
+      <c r="I31" s="137"/>
+      <c r="J31" s="144"/>
+      <c r="K31" s="230"/>
+      <c r="L31" s="145"/>
       <c r="M31" s="58"/>
       <c r="N31" s="59"/>
       <c r="O31" s="60"/>
       <c r="P31" s="60"/>
       <c r="Q31" s="60"/>
-      <c r="R31" s="227"/>
-      <c r="S31" s="228"/>
+      <c r="R31" s="144"/>
+      <c r="S31" s="145"/>
     </row>
     <row r="32" spans="2:19" s="47" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B32" s="168"/>
-      <c r="C32" s="252"/>
-      <c r="D32" s="246"/>
-      <c r="E32" s="257"/>
-      <c r="F32" s="272"/>
-      <c r="G32" s="272"/>
-      <c r="H32" s="257"/>
-      <c r="I32" s="257"/>
-      <c r="J32" s="272"/>
-      <c r="K32" s="272"/>
-      <c r="L32" s="272"/>
+      <c r="B32" s="162"/>
+      <c r="C32" s="237"/>
+      <c r="D32" s="231"/>
+      <c r="E32" s="242"/>
+      <c r="F32" s="257"/>
+      <c r="G32" s="257"/>
+      <c r="H32" s="242"/>
+      <c r="I32" s="242"/>
+      <c r="J32" s="257"/>
+      <c r="K32" s="257"/>
+      <c r="L32" s="257"/>
       <c r="M32" s="36"/>
       <c r="N32" s="36"/>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
-      <c r="R32" s="272"/>
-      <c r="S32" s="273"/>
+      <c r="R32" s="257"/>
+      <c r="S32" s="258"/>
     </row>
     <row r="33" spans="2:25" s="47" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
-      <c r="B33" s="166" t="s">
+      <c r="B33" s="160" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="234"/>
-      <c r="D33" s="210"/>
-      <c r="E33" s="213"/>
-      <c r="F33" s="268"/>
-      <c r="G33" s="268"/>
-      <c r="H33" s="213"/>
-      <c r="I33" s="213"/>
-      <c r="J33" s="268"/>
-      <c r="K33" s="268"/>
-      <c r="L33" s="268"/>
+      <c r="C33" s="219"/>
+      <c r="D33" s="197"/>
+      <c r="E33" s="200"/>
+      <c r="F33" s="253"/>
+      <c r="G33" s="253"/>
+      <c r="H33" s="200"/>
+      <c r="I33" s="200"/>
+      <c r="J33" s="253"/>
+      <c r="K33" s="253"/>
+      <c r="L33" s="253"/>
       <c r="M33" s="50"/>
       <c r="N33" s="50"/>
       <c r="O33" s="51"/>
       <c r="P33" s="51"/>
       <c r="Q33" s="51"/>
-      <c r="R33" s="268"/>
-      <c r="S33" s="274"/>
+      <c r="R33" s="253"/>
+      <c r="S33" s="259"/>
     </row>
     <row r="34" spans="2:25" s="47" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B34" s="167"/>
-      <c r="C34" s="235"/>
+      <c r="B34" s="161"/>
+      <c r="C34" s="220"/>
       <c r="D34" s="52"/>
-      <c r="E34" s="248"/>
-      <c r="F34" s="249"/>
-      <c r="G34" s="248"/>
-      <c r="H34" s="249"/>
-      <c r="I34" s="248"/>
-      <c r="J34" s="249"/>
+      <c r="E34" s="233"/>
+      <c r="F34" s="234"/>
+      <c r="G34" s="233"/>
+      <c r="H34" s="234"/>
+      <c r="I34" s="233"/>
+      <c r="J34" s="234"/>
       <c r="K34" s="53"/>
-      <c r="L34" s="269"/>
-      <c r="M34" s="270"/>
-      <c r="N34" s="270"/>
-      <c r="O34" s="270"/>
-      <c r="P34" s="270"/>
-      <c r="Q34" s="270"/>
-      <c r="R34" s="271"/>
-      <c r="S34" s="258" t="s">
+      <c r="L34" s="254"/>
+      <c r="M34" s="255"/>
+      <c r="N34" s="255"/>
+      <c r="O34" s="255"/>
+      <c r="P34" s="255"/>
+      <c r="Q34" s="255"/>
+      <c r="R34" s="256"/>
+      <c r="S34" s="243" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:25" s="47" customFormat="1" ht="7.5" customHeight="1" thickBot="1">
-      <c r="B35" s="167"/>
-      <c r="C35" s="235"/>
-      <c r="D35" s="253" t="s">
+      <c r="B35" s="161"/>
+      <c r="C35" s="220"/>
+      <c r="D35" s="238" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="246" t="s">
+      <c r="E35" s="231" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="247"/>
-      <c r="G35" s="246" t="s">
+      <c r="F35" s="232"/>
+      <c r="G35" s="231" t="s">
         <v>28</v>
       </c>
-      <c r="H35" s="247"/>
-      <c r="I35" s="246"/>
-      <c r="J35" s="247"/>
-      <c r="K35" s="253"/>
-      <c r="L35" s="160"/>
-      <c r="M35" s="161"/>
-      <c r="N35" s="161"/>
-      <c r="O35" s="161"/>
-      <c r="P35" s="161"/>
-      <c r="Q35" s="161"/>
-      <c r="R35" s="162"/>
-      <c r="S35" s="259"/>
+      <c r="H35" s="232"/>
+      <c r="I35" s="231"/>
+      <c r="J35" s="232"/>
+      <c r="K35" s="238"/>
+      <c r="L35" s="154"/>
+      <c r="M35" s="155"/>
+      <c r="N35" s="155"/>
+      <c r="O35" s="155"/>
+      <c r="P35" s="155"/>
+      <c r="Q35" s="155"/>
+      <c r="R35" s="156"/>
+      <c r="S35" s="244"/>
     </row>
     <row r="36" spans="2:25" s="47" customFormat="1" ht="6.75" customHeight="1" thickBot="1">
-      <c r="B36" s="167"/>
-      <c r="C36" s="235"/>
-      <c r="D36" s="254"/>
-      <c r="E36" s="210"/>
-      <c r="F36" s="211"/>
-      <c r="G36" s="210"/>
-      <c r="H36" s="211"/>
-      <c r="I36" s="210"/>
-      <c r="J36" s="211"/>
-      <c r="K36" s="254"/>
-      <c r="L36" s="160"/>
-      <c r="M36" s="161"/>
-      <c r="N36" s="161"/>
-      <c r="O36" s="161"/>
-      <c r="P36" s="161"/>
-      <c r="Q36" s="161"/>
-      <c r="R36" s="162"/>
-      <c r="S36" s="258"/>
+      <c r="B36" s="161"/>
+      <c r="C36" s="220"/>
+      <c r="D36" s="239"/>
+      <c r="E36" s="197"/>
+      <c r="F36" s="198"/>
+      <c r="G36" s="197"/>
+      <c r="H36" s="198"/>
+      <c r="I36" s="197"/>
+      <c r="J36" s="198"/>
+      <c r="K36" s="239"/>
+      <c r="L36" s="154"/>
+      <c r="M36" s="155"/>
+      <c r="N36" s="155"/>
+      <c r="O36" s="155"/>
+      <c r="P36" s="155"/>
+      <c r="Q36" s="155"/>
+      <c r="R36" s="156"/>
+      <c r="S36" s="243"/>
     </row>
     <row r="37" spans="2:25" s="47" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B37" s="168"/>
-      <c r="C37" s="236"/>
+      <c r="B37" s="162"/>
+      <c r="C37" s="221"/>
       <c r="D37" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="255" t="s">
+      <c r="E37" s="240" t="s">
         <v>0</v>
       </c>
-      <c r="F37" s="256"/>
-      <c r="G37" s="255" t="s">
+      <c r="F37" s="241"/>
+      <c r="G37" s="240" t="s">
         <v>17</v>
       </c>
-      <c r="H37" s="267"/>
-      <c r="I37" s="266" t="s">
+      <c r="H37" s="252"/>
+      <c r="I37" s="251" t="s">
         <v>7</v>
       </c>
-      <c r="J37" s="267"/>
+      <c r="J37" s="252"/>
       <c r="K37" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="L37" s="163"/>
-      <c r="M37" s="164"/>
-      <c r="N37" s="164"/>
-      <c r="O37" s="164"/>
-      <c r="P37" s="164"/>
-      <c r="Q37" s="164"/>
-      <c r="R37" s="165"/>
-      <c r="S37" s="259"/>
+      <c r="L37" s="157"/>
+      <c r="M37" s="158"/>
+      <c r="N37" s="158"/>
+      <c r="O37" s="158"/>
+      <c r="P37" s="158"/>
+      <c r="Q37" s="158"/>
+      <c r="R37" s="159"/>
+      <c r="S37" s="244"/>
     </row>
     <row r="38" spans="2:25" s="47" customFormat="1" ht="16.5" customHeight="1">
       <c r="N38" s="30" t="s">
